--- a/AAII_Financials/Yearly/JP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JP_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,154 @@
     <col min="1" max="1" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>190300</v>
+        <v>110700</v>
       </c>
       <c r="E8" s="3">
-        <v>245700</v>
+        <v>185600</v>
       </c>
       <c r="F8" s="3">
-        <v>162300</v>
+        <v>239700</v>
       </c>
       <c r="G8" s="3">
-        <v>86400</v>
+        <v>158400</v>
       </c>
       <c r="H8" s="3">
-        <v>5600</v>
+        <v>84300</v>
       </c>
       <c r="I8" s="3">
-        <v>3200</v>
+        <v>5400</v>
       </c>
       <c r="J8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K8" s="3">
         <v>1200</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>98800</v>
+        <v>68100</v>
       </c>
       <c r="E9" s="3">
-        <v>106800</v>
+        <v>96400</v>
       </c>
       <c r="F9" s="3">
-        <v>69000</v>
+        <v>104100</v>
       </c>
       <c r="G9" s="3">
-        <v>34900</v>
+        <v>67300</v>
       </c>
       <c r="H9" s="3">
+        <v>34100</v>
+      </c>
+      <c r="I9" s="3">
         <v>1500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>91400</v>
+        <v>42600</v>
       </c>
       <c r="E10" s="3">
-        <v>139000</v>
+        <v>89200</v>
       </c>
       <c r="F10" s="3">
-        <v>93400</v>
+        <v>135600</v>
       </c>
       <c r="G10" s="3">
-        <v>51500</v>
+        <v>91100</v>
       </c>
       <c r="H10" s="3">
-        <v>4100</v>
+        <v>50300</v>
       </c>
       <c r="I10" s="3">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="J10" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K10" s="3">
         <v>1100</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,20 +888,23 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>38400</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>37400</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -896,15 +915,18 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -932,9 +954,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,68 +969,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>213100</v>
+        <v>129800</v>
       </c>
       <c r="E17" s="3">
-        <v>170600</v>
+        <v>207900</v>
       </c>
       <c r="F17" s="3">
-        <v>120000</v>
+        <v>166400</v>
       </c>
       <c r="G17" s="3">
-        <v>57200</v>
+        <v>117100</v>
       </c>
       <c r="H17" s="3">
-        <v>3000</v>
+        <v>55800</v>
       </c>
       <c r="I17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J17" s="3">
         <v>1600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-22900</v>
+        <v>-19100</v>
       </c>
       <c r="E18" s="3">
-        <v>75100</v>
+        <v>-22300</v>
       </c>
       <c r="F18" s="3">
-        <v>42300</v>
+        <v>73300</v>
       </c>
       <c r="G18" s="3">
-        <v>29300</v>
+        <v>41300</v>
       </c>
       <c r="H18" s="3">
-        <v>2600</v>
+        <v>28500</v>
       </c>
       <c r="I18" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J18" s="3">
         <v>1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>800</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,68 +1050,75 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E20" s="3">
         <v>1100</v>
       </c>
-      <c r="E20" s="3">
-        <v>2800</v>
-      </c>
       <c r="F20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G20" s="3">
         <v>2300</v>
       </c>
-      <c r="G20" s="3">
-        <v>3800</v>
-      </c>
       <c r="H20" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-16500</v>
+        <v>-12400</v>
       </c>
       <c r="E21" s="3">
-        <v>82600</v>
+        <v>-16100</v>
       </c>
       <c r="F21" s="3">
-        <v>48900</v>
+        <v>80500</v>
       </c>
       <c r="G21" s="3">
-        <v>34900</v>
+        <v>47700</v>
       </c>
       <c r="H21" s="3">
-        <v>3000</v>
+        <v>34000</v>
       </c>
       <c r="I21" s="3">
-        <v>1800</v>
+        <v>2900</v>
       </c>
       <c r="J21" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K21" s="3">
         <v>800</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1089,8 +1128,8 @@
       <c r="E22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1104,72 +1143,81 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-21700</v>
+        <v>-16000</v>
       </c>
       <c r="E23" s="3">
-        <v>77900</v>
+        <v>-21200</v>
       </c>
       <c r="F23" s="3">
-        <v>44600</v>
+        <v>76000</v>
       </c>
       <c r="G23" s="3">
-        <v>33000</v>
+        <v>43500</v>
       </c>
       <c r="H23" s="3">
-        <v>2900</v>
+        <v>32200</v>
       </c>
       <c r="I23" s="3">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="J23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K23" s="3">
         <v>800</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>18600</v>
+        <v>7400</v>
       </c>
       <c r="E24" s="3">
-        <v>17600</v>
+        <v>18200</v>
       </c>
       <c r="F24" s="3">
-        <v>11900</v>
+        <v>17200</v>
       </c>
       <c r="G24" s="3">
-        <v>9600</v>
+        <v>11600</v>
       </c>
       <c r="H24" s="3">
+        <v>9400</v>
+      </c>
+      <c r="I24" s="3">
         <v>800</v>
       </c>
-      <c r="I24" s="3">
-        <v>500</v>
-      </c>
       <c r="J24" s="3">
+        <v>400</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,69 +1245,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-40400</v>
+        <v>-23400</v>
       </c>
       <c r="E26" s="3">
-        <v>60300</v>
+        <v>-39400</v>
       </c>
       <c r="F26" s="3">
-        <v>32800</v>
+        <v>58800</v>
       </c>
       <c r="G26" s="3">
-        <v>23400</v>
+        <v>32000</v>
       </c>
       <c r="H26" s="3">
-        <v>2100</v>
+        <v>22800</v>
       </c>
       <c r="I26" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J26" s="3">
         <v>1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>600</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-55600</v>
+        <v>-23000</v>
       </c>
       <c r="E27" s="3">
-        <v>58800</v>
+        <v>-54300</v>
       </c>
       <c r="F27" s="3">
-        <v>29800</v>
+        <v>57300</v>
       </c>
       <c r="G27" s="3">
-        <v>22000</v>
+        <v>29100</v>
       </c>
       <c r="H27" s="3">
+        <v>21500</v>
+      </c>
+      <c r="I27" s="3">
         <v>1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>600</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,69 +1443,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1100</v>
       </c>
-      <c r="E32" s="3">
-        <v>-2800</v>
-      </c>
       <c r="F32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G32" s="3">
         <v>-2300</v>
       </c>
-      <c r="G32" s="3">
-        <v>-3800</v>
-      </c>
       <c r="H32" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-55600</v>
+        <v>-23000</v>
       </c>
       <c r="E33" s="3">
-        <v>58800</v>
+        <v>-54300</v>
       </c>
       <c r="F33" s="3">
-        <v>29800</v>
+        <v>57300</v>
       </c>
       <c r="G33" s="3">
-        <v>22000</v>
+        <v>29100</v>
       </c>
       <c r="H33" s="3">
+        <v>21500</v>
+      </c>
+      <c r="I33" s="3">
         <v>1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>600</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,74 +1542,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-55600</v>
+        <v>-23000</v>
       </c>
       <c r="E35" s="3">
-        <v>58800</v>
+        <v>-54300</v>
       </c>
       <c r="F35" s="3">
-        <v>29800</v>
+        <v>57300</v>
       </c>
       <c r="G35" s="3">
-        <v>22000</v>
+        <v>29100</v>
       </c>
       <c r="H35" s="3">
+        <v>21500</v>
+      </c>
+      <c r="I35" s="3">
         <v>1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>600</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,98 +1646,108 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>186300</v>
+        <v>99700</v>
       </c>
       <c r="E41" s="3">
-        <v>219200</v>
+        <v>182000</v>
       </c>
       <c r="F41" s="3">
-        <v>161200</v>
+        <v>214100</v>
       </c>
       <c r="G41" s="3">
-        <v>114100</v>
+        <v>157400</v>
       </c>
       <c r="H41" s="3">
-        <v>4500</v>
+        <v>111500</v>
       </c>
       <c r="I41" s="3">
-        <v>800</v>
+        <v>4400</v>
       </c>
       <c r="J41" s="3">
+        <v>700</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>3300</v>
       </c>
-      <c r="F42" s="3">
-        <v>3600</v>
-      </c>
       <c r="G42" s="3">
-        <v>10700</v>
+        <v>3500</v>
       </c>
       <c r="H42" s="3">
+        <v>10400</v>
+      </c>
+      <c r="I42" s="3">
         <v>1800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>300</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>37200</v>
+        <v>15300</v>
       </c>
       <c r="E43" s="3">
-        <v>49500</v>
+        <v>36400</v>
       </c>
       <c r="F43" s="3">
-        <v>38000</v>
+        <v>48400</v>
       </c>
       <c r="G43" s="3">
-        <v>10300</v>
+        <v>37100</v>
       </c>
       <c r="H43" s="3">
-        <v>800</v>
+        <v>10000</v>
       </c>
       <c r="I43" s="3">
+        <v>700</v>
+      </c>
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1100</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1680,146 +1775,161 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2800</v>
+        <v>900</v>
       </c>
       <c r="E45" s="3">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="F45" s="3">
-        <v>9800</v>
+        <v>1700</v>
       </c>
       <c r="G45" s="3">
-        <v>7600</v>
+        <v>9600</v>
       </c>
       <c r="H45" s="3">
+        <v>7400</v>
+      </c>
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
-        <v>1600</v>
-      </c>
       <c r="J45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>227000</v>
+        <v>115900</v>
       </c>
       <c r="E46" s="3">
-        <v>273800</v>
+        <v>221700</v>
       </c>
       <c r="F46" s="3">
-        <v>212600</v>
+        <v>267500</v>
       </c>
       <c r="G46" s="3">
-        <v>142600</v>
+        <v>207600</v>
       </c>
       <c r="H46" s="3">
-        <v>7700</v>
+        <v>139300</v>
       </c>
       <c r="I46" s="3">
-        <v>3700</v>
+        <v>7500</v>
       </c>
       <c r="J46" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K46" s="3">
         <v>1700</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>25100</v>
+        <v>79300</v>
       </c>
       <c r="E47" s="3">
-        <v>33300</v>
+        <v>24500</v>
       </c>
       <c r="F47" s="3">
-        <v>22400</v>
+        <v>32600</v>
       </c>
       <c r="G47" s="3">
-        <v>20100</v>
+        <v>21900</v>
       </c>
       <c r="H47" s="3">
+        <v>19600</v>
+      </c>
+      <c r="I47" s="3">
         <v>1700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>500</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G48" s="3">
         <v>5200</v>
       </c>
-      <c r="E48" s="3">
-        <v>6500</v>
-      </c>
-      <c r="F48" s="3">
-        <v>5300</v>
-      </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>100</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8400</v>
+        <v>5400</v>
       </c>
       <c r="E49" s="3">
-        <v>48200</v>
+        <v>8200</v>
       </c>
       <c r="F49" s="3">
-        <v>51800</v>
+        <v>47100</v>
       </c>
       <c r="G49" s="3">
-        <v>45100</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+        <v>50600</v>
+      </c>
+      <c r="H49" s="3">
+        <v>44100</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1830,9 +1940,12 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,26 +2006,29 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>18500</v>
+        <v>3200</v>
       </c>
       <c r="E52" s="3">
-        <v>15000</v>
+        <v>18100</v>
       </c>
       <c r="F52" s="3">
-        <v>13200</v>
+        <v>14600</v>
       </c>
       <c r="G52" s="3">
-        <v>15000</v>
+        <v>12900</v>
       </c>
       <c r="H52" s="3">
-        <v>0</v>
+        <v>14700</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -1917,12 +2036,15 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,39 +2072,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>284200</v>
+        <v>217200</v>
       </c>
       <c r="E54" s="3">
-        <v>376800</v>
+        <v>277600</v>
       </c>
       <c r="F54" s="3">
-        <v>305300</v>
+        <v>368100</v>
       </c>
       <c r="G54" s="3">
-        <v>225200</v>
+        <v>298300</v>
       </c>
       <c r="H54" s="3">
-        <v>9700</v>
+        <v>220000</v>
       </c>
       <c r="I54" s="3">
-        <v>4700</v>
+        <v>9400</v>
       </c>
       <c r="J54" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K54" s="3">
         <v>2200</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,38 +2138,42 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
-        <v>3900</v>
+        <v>0</v>
       </c>
       <c r="F57" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2068,69 +2201,78 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>80000</v>
+        <v>44500</v>
       </c>
       <c r="E59" s="3">
-        <v>96200</v>
+        <v>82500</v>
       </c>
       <c r="F59" s="3">
-        <v>68400</v>
+        <v>97800</v>
       </c>
       <c r="G59" s="3">
-        <v>54300</v>
+        <v>67700</v>
       </c>
       <c r="H59" s="3">
-        <v>2800</v>
+        <v>53100</v>
       </c>
       <c r="I59" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J59" s="3">
         <v>1100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>84500</v>
+        <v>44500</v>
       </c>
       <c r="E60" s="3">
-        <v>100100</v>
+        <v>82500</v>
       </c>
       <c r="F60" s="3">
-        <v>69300</v>
+        <v>97800</v>
       </c>
       <c r="G60" s="3">
-        <v>54200</v>
+        <v>67700</v>
       </c>
       <c r="H60" s="3">
-        <v>2800</v>
+        <v>52900</v>
       </c>
       <c r="I60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J60" s="3">
         <v>1100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>300</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2158,39 +2300,45 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3500</v>
+        <v>4700</v>
       </c>
       <c r="E62" s="3">
-        <v>10700</v>
+        <v>3400</v>
       </c>
       <c r="F62" s="3">
-        <v>13900</v>
+        <v>10400</v>
       </c>
       <c r="G62" s="3">
-        <v>12600</v>
+        <v>13600</v>
       </c>
       <c r="H62" s="3">
+        <v>12300</v>
+      </c>
+      <c r="I62" s="3">
         <v>200</v>
-      </c>
-      <c r="I62" s="3">
-        <v>100</v>
       </c>
       <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K62" s="3">
+        <v>100</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,39 +2432,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>92000</v>
+        <v>50800</v>
       </c>
       <c r="E66" s="3">
-        <v>115800</v>
+        <v>89900</v>
       </c>
       <c r="F66" s="3">
-        <v>90000</v>
+        <v>113100</v>
       </c>
       <c r="G66" s="3">
-        <v>69200</v>
+        <v>87900</v>
       </c>
       <c r="H66" s="3">
-        <v>3100</v>
+        <v>67600</v>
       </c>
       <c r="I66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J66" s="3">
         <v>1300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>400</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2401,20 +2568,23 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J70" s="3">
         <v>200</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,39 +2612,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>21100</v>
+        <v>-2500</v>
       </c>
       <c r="E72" s="3">
-        <v>94900</v>
+        <v>20600</v>
       </c>
       <c r="F72" s="3">
-        <v>52100</v>
+        <v>92700</v>
       </c>
       <c r="G72" s="3">
-        <v>22300</v>
+        <v>50900</v>
       </c>
       <c r="H72" s="3">
-        <v>0</v>
+        <v>21800</v>
       </c>
       <c r="I72" s="3">
+        <v>0</v>
+      </c>
+      <c r="J72" s="3">
         <v>2100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>800</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,39 +2744,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>192100</v>
+        <v>166400</v>
       </c>
       <c r="E76" s="3">
-        <v>261000</v>
+        <v>187700</v>
       </c>
       <c r="F76" s="3">
-        <v>215300</v>
+        <v>255000</v>
       </c>
       <c r="G76" s="3">
-        <v>156000</v>
+        <v>210300</v>
       </c>
       <c r="H76" s="3">
-        <v>1100</v>
+        <v>152400</v>
       </c>
       <c r="I76" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J76" s="3">
         <v>3100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1700</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,74 +2810,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-55600</v>
+        <v>-23000</v>
       </c>
       <c r="E81" s="3">
-        <v>58800</v>
+        <v>-54300</v>
       </c>
       <c r="F81" s="3">
-        <v>29800</v>
+        <v>57300</v>
       </c>
       <c r="G81" s="3">
-        <v>22000</v>
+        <v>29100</v>
       </c>
       <c r="H81" s="3">
+        <v>21500</v>
+      </c>
+      <c r="I81" s="3">
         <v>1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>600</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,38 +2899,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5200</v>
+        <v>3700</v>
       </c>
       <c r="E83" s="3">
-        <v>4700</v>
+        <v>5100</v>
       </c>
       <c r="F83" s="3">
-        <v>4300</v>
+        <v>4600</v>
       </c>
       <c r="G83" s="3">
-        <v>1900</v>
+        <v>4200</v>
       </c>
       <c r="H83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,39 +3094,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-9700</v>
+        <v>-29800</v>
       </c>
       <c r="E89" s="3">
-        <v>88600</v>
+        <v>-9500</v>
       </c>
       <c r="F89" s="3">
-        <v>27000</v>
+        <v>86400</v>
       </c>
       <c r="G89" s="3">
-        <v>53000</v>
+        <v>26300</v>
       </c>
       <c r="H89" s="3">
-        <v>3500</v>
+        <v>51700</v>
       </c>
       <c r="I89" s="3">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="J89" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K89" s="3">
         <v>200</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,38 +3145,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1300</v>
       </c>
-      <c r="E91" s="3">
-        <v>-5600</v>
-      </c>
       <c r="F91" s="3">
-        <v>-7600</v>
+        <v>-5500</v>
       </c>
       <c r="G91" s="3">
-        <v>-1800</v>
+        <v>-7400</v>
       </c>
       <c r="H91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,39 +3241,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5900</v>
+        <v>-51200</v>
       </c>
       <c r="E94" s="3">
-        <v>-10600</v>
+        <v>-5700</v>
       </c>
       <c r="F94" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="G94" s="3">
         <v>300</v>
       </c>
-      <c r="G94" s="3">
-        <v>-10800</v>
-      </c>
       <c r="H94" s="3">
-        <v>-900</v>
+        <v>-10500</v>
       </c>
       <c r="I94" s="3">
-        <v>-2200</v>
+        <v>-800</v>
       </c>
       <c r="J94" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-800</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,19 +3292,20 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-18100</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-16000</v>
+        <v>-17700</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-15600</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,97 +3421,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-17400</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>-17400</v>
+        <v>-17000</v>
       </c>
       <c r="F100" s="3">
-        <v>16400</v>
+        <v>-17000</v>
       </c>
       <c r="G100" s="3">
-        <v>42200</v>
+        <v>16000</v>
       </c>
       <c r="H100" s="3">
+        <v>41100</v>
+      </c>
+      <c r="I100" s="3">
         <v>1100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E101" s="3">
         <v>700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2500</v>
       </c>
-      <c r="F101" s="3">
-        <v>3300</v>
-      </c>
       <c r="G101" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H101" s="3">
         <v>2100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-32300</v>
+        <v>-82600</v>
       </c>
       <c r="E102" s="3">
-        <v>58100</v>
+        <v>-31500</v>
       </c>
       <c r="F102" s="3">
-        <v>47000</v>
+        <v>56600</v>
       </c>
       <c r="G102" s="3">
-        <v>86400</v>
+        <v>45900</v>
       </c>
       <c r="H102" s="3">
-        <v>3800</v>
+        <v>84300</v>
       </c>
       <c r="I102" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J102" s="3">
         <v>600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/JP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JP_YR_FIN.xlsx
@@ -718,25 +718,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>110700</v>
+        <v>114800</v>
       </c>
       <c r="E8" s="3">
-        <v>185600</v>
+        <v>192600</v>
       </c>
       <c r="F8" s="3">
-        <v>239700</v>
+        <v>248700</v>
       </c>
       <c r="G8" s="3">
-        <v>158400</v>
+        <v>164300</v>
       </c>
       <c r="H8" s="3">
-        <v>84300</v>
+        <v>87500</v>
       </c>
       <c r="I8" s="3">
-        <v>5400</v>
+        <v>5700</v>
       </c>
       <c r="J8" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="K8" s="3">
         <v>1200</v>
@@ -751,19 +751,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>68100</v>
+        <v>70700</v>
       </c>
       <c r="E9" s="3">
-        <v>96400</v>
+        <v>100000</v>
       </c>
       <c r="F9" s="3">
-        <v>104100</v>
+        <v>108100</v>
       </c>
       <c r="G9" s="3">
-        <v>67300</v>
+        <v>69800</v>
       </c>
       <c r="H9" s="3">
-        <v>34100</v>
+        <v>35300</v>
       </c>
       <c r="I9" s="3">
         <v>1500</v>
@@ -784,25 +784,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>42600</v>
+        <v>44200</v>
       </c>
       <c r="E10" s="3">
-        <v>89200</v>
+        <v>92500</v>
       </c>
       <c r="F10" s="3">
-        <v>135600</v>
+        <v>140700</v>
       </c>
       <c r="G10" s="3">
-        <v>91100</v>
+        <v>94500</v>
       </c>
       <c r="H10" s="3">
-        <v>50300</v>
+        <v>52100</v>
       </c>
       <c r="I10" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="J10" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="K10" s="3">
         <v>1100</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>37400</v>
+        <v>38800</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -976,22 +976,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>129800</v>
+        <v>134700</v>
       </c>
       <c r="E17" s="3">
-        <v>207900</v>
+        <v>215700</v>
       </c>
       <c r="F17" s="3">
-        <v>166400</v>
+        <v>172700</v>
       </c>
       <c r="G17" s="3">
-        <v>117100</v>
+        <v>121500</v>
       </c>
       <c r="H17" s="3">
-        <v>55800</v>
+        <v>57900</v>
       </c>
       <c r="I17" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="J17" s="3">
         <v>1600</v>
@@ -1009,22 +1009,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-19100</v>
+        <v>-19800</v>
       </c>
       <c r="E18" s="3">
-        <v>-22300</v>
+        <v>-23100</v>
       </c>
       <c r="F18" s="3">
-        <v>73300</v>
+        <v>76000</v>
       </c>
       <c r="G18" s="3">
-        <v>41300</v>
+        <v>42800</v>
       </c>
       <c r="H18" s="3">
-        <v>28500</v>
+        <v>29600</v>
       </c>
       <c r="I18" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="J18" s="3">
         <v>1600</v>
@@ -1057,19 +1057,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="E20" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F20" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="G20" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="H20" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="I20" s="3">
         <v>300</v>
@@ -1090,25 +1090,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-12400</v>
+        <v>-12900</v>
       </c>
       <c r="E21" s="3">
-        <v>-16100</v>
+        <v>-16700</v>
       </c>
       <c r="F21" s="3">
-        <v>80500</v>
+        <v>83600</v>
       </c>
       <c r="G21" s="3">
-        <v>47700</v>
+        <v>49500</v>
       </c>
       <c r="H21" s="3">
-        <v>34000</v>
+        <v>35300</v>
       </c>
       <c r="I21" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="J21" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="K21" s="3">
         <v>800</v>
@@ -1156,25 +1156,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-16000</v>
+        <v>-16600</v>
       </c>
       <c r="E23" s="3">
-        <v>-21200</v>
+        <v>-22000</v>
       </c>
       <c r="F23" s="3">
-        <v>76000</v>
+        <v>78800</v>
       </c>
       <c r="G23" s="3">
-        <v>43500</v>
+        <v>45200</v>
       </c>
       <c r="H23" s="3">
-        <v>32200</v>
+        <v>33400</v>
       </c>
       <c r="I23" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="J23" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="K23" s="3">
         <v>800</v>
@@ -1189,25 +1189,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7400</v>
+        <v>7700</v>
       </c>
       <c r="E24" s="3">
-        <v>18200</v>
+        <v>18900</v>
       </c>
       <c r="F24" s="3">
-        <v>17200</v>
+        <v>17900</v>
       </c>
       <c r="G24" s="3">
-        <v>11600</v>
+        <v>12000</v>
       </c>
       <c r="H24" s="3">
-        <v>9400</v>
+        <v>9800</v>
       </c>
       <c r="I24" s="3">
         <v>800</v>
       </c>
       <c r="J24" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K24" s="3">
         <v>200</v>
@@ -1255,22 +1255,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-23400</v>
+        <v>-24300</v>
       </c>
       <c r="E26" s="3">
-        <v>-39400</v>
+        <v>-40900</v>
       </c>
       <c r="F26" s="3">
-        <v>58800</v>
+        <v>61000</v>
       </c>
       <c r="G26" s="3">
-        <v>32000</v>
+        <v>33200</v>
       </c>
       <c r="H26" s="3">
-        <v>22800</v>
+        <v>23700</v>
       </c>
       <c r="I26" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="J26" s="3">
         <v>1300</v>
@@ -1288,19 +1288,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-23000</v>
+        <v>-23900</v>
       </c>
       <c r="E27" s="3">
-        <v>-54300</v>
+        <v>-56300</v>
       </c>
       <c r="F27" s="3">
-        <v>57300</v>
+        <v>59500</v>
       </c>
       <c r="G27" s="3">
-        <v>29100</v>
+        <v>30100</v>
       </c>
       <c r="H27" s="3">
-        <v>21500</v>
+        <v>22300</v>
       </c>
       <c r="I27" s="3">
         <v>1000</v>
@@ -1453,19 +1453,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="E32" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="F32" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="G32" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="H32" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="I32" s="3">
         <v>-300</v>
@@ -1486,19 +1486,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-23000</v>
+        <v>-23900</v>
       </c>
       <c r="E33" s="3">
-        <v>-54300</v>
+        <v>-56300</v>
       </c>
       <c r="F33" s="3">
-        <v>57300</v>
+        <v>59500</v>
       </c>
       <c r="G33" s="3">
-        <v>29100</v>
+        <v>30100</v>
       </c>
       <c r="H33" s="3">
-        <v>21500</v>
+        <v>22300</v>
       </c>
       <c r="I33" s="3">
         <v>1000</v>
@@ -1552,19 +1552,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-23000</v>
+        <v>-23900</v>
       </c>
       <c r="E35" s="3">
-        <v>-54300</v>
+        <v>-56300</v>
       </c>
       <c r="F35" s="3">
-        <v>57300</v>
+        <v>59500</v>
       </c>
       <c r="G35" s="3">
-        <v>29100</v>
+        <v>30100</v>
       </c>
       <c r="H35" s="3">
-        <v>21500</v>
+        <v>22300</v>
       </c>
       <c r="I35" s="3">
         <v>1000</v>
@@ -1653,25 +1653,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>99700</v>
+        <v>103300</v>
       </c>
       <c r="E41" s="3">
-        <v>182000</v>
+        <v>188600</v>
       </c>
       <c r="F41" s="3">
-        <v>214100</v>
+        <v>221900</v>
       </c>
       <c r="G41" s="3">
-        <v>157400</v>
+        <v>163100</v>
       </c>
       <c r="H41" s="3">
-        <v>111500</v>
+        <v>115500</v>
       </c>
       <c r="I41" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="J41" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
@@ -1692,16 +1692,16 @@
         <v>700</v>
       </c>
       <c r="F42" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="G42" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="H42" s="3">
-        <v>10400</v>
+        <v>10800</v>
       </c>
       <c r="I42" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="J42" s="3">
         <v>1000</v>
@@ -1719,22 +1719,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>15300</v>
+        <v>15900</v>
       </c>
       <c r="E43" s="3">
-        <v>36400</v>
+        <v>37700</v>
       </c>
       <c r="F43" s="3">
-        <v>48400</v>
+        <v>50100</v>
       </c>
       <c r="G43" s="3">
-        <v>37100</v>
+        <v>38400</v>
       </c>
       <c r="H43" s="3">
-        <v>10000</v>
+        <v>10400</v>
       </c>
       <c r="I43" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J43" s="3">
         <v>400</v>
@@ -1788,22 +1788,22 @@
         <v>900</v>
       </c>
       <c r="E45" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="F45" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="G45" s="3">
-        <v>9600</v>
+        <v>9900</v>
       </c>
       <c r="H45" s="3">
-        <v>7400</v>
+        <v>7700</v>
       </c>
       <c r="I45" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J45" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -1818,25 +1818,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>115900</v>
+        <v>120000</v>
       </c>
       <c r="E46" s="3">
-        <v>221700</v>
+        <v>229800</v>
       </c>
       <c r="F46" s="3">
-        <v>267500</v>
+        <v>277200</v>
       </c>
       <c r="G46" s="3">
-        <v>207600</v>
+        <v>215100</v>
       </c>
       <c r="H46" s="3">
-        <v>139300</v>
+        <v>144400</v>
       </c>
       <c r="I46" s="3">
-        <v>7500</v>
+        <v>7800</v>
       </c>
       <c r="J46" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="K46" s="3">
         <v>1700</v>
@@ -1851,22 +1851,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>79300</v>
+        <v>82100</v>
       </c>
       <c r="E47" s="3">
-        <v>24500</v>
+        <v>25400</v>
       </c>
       <c r="F47" s="3">
-        <v>32600</v>
+        <v>33700</v>
       </c>
       <c r="G47" s="3">
-        <v>21900</v>
+        <v>22700</v>
       </c>
       <c r="H47" s="3">
-        <v>19600</v>
+        <v>20300</v>
       </c>
       <c r="I47" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="J47" s="3">
         <v>900</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13600</v>
+        <v>14100</v>
       </c>
       <c r="E48" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="F48" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="G48" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="H48" s="3">
         <v>2300</v>
@@ -1917,19 +1917,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="E49" s="3">
-        <v>8200</v>
+        <v>8500</v>
       </c>
       <c r="F49" s="3">
-        <v>47100</v>
+        <v>48800</v>
       </c>
       <c r="G49" s="3">
-        <v>50600</v>
+        <v>52400</v>
       </c>
       <c r="H49" s="3">
-        <v>44100</v>
+        <v>45700</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2016,19 +2016,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="E52" s="3">
-        <v>18100</v>
+        <v>18700</v>
       </c>
       <c r="F52" s="3">
-        <v>14600</v>
+        <v>15100</v>
       </c>
       <c r="G52" s="3">
-        <v>12900</v>
+        <v>13400</v>
       </c>
       <c r="H52" s="3">
-        <v>14700</v>
+        <v>15200</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -2082,25 +2082,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>217200</v>
+        <v>225100</v>
       </c>
       <c r="E54" s="3">
-        <v>277600</v>
+        <v>287600</v>
       </c>
       <c r="F54" s="3">
-        <v>368100</v>
+        <v>381400</v>
       </c>
       <c r="G54" s="3">
-        <v>298300</v>
+        <v>309100</v>
       </c>
       <c r="H54" s="3">
-        <v>220000</v>
+        <v>227900</v>
       </c>
       <c r="I54" s="3">
-        <v>9400</v>
+        <v>9800</v>
       </c>
       <c r="J54" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="K54" s="3">
         <v>2200</v>
@@ -2211,22 +2211,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>44500</v>
+        <v>46100</v>
       </c>
       <c r="E59" s="3">
-        <v>82500</v>
+        <v>85500</v>
       </c>
       <c r="F59" s="3">
-        <v>97800</v>
+        <v>101400</v>
       </c>
       <c r="G59" s="3">
-        <v>67700</v>
+        <v>70100</v>
       </c>
       <c r="H59" s="3">
-        <v>53100</v>
+        <v>55000</v>
       </c>
       <c r="I59" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="J59" s="3">
         <v>1100</v>
@@ -2244,22 +2244,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>44500</v>
+        <v>46100</v>
       </c>
       <c r="E60" s="3">
-        <v>82500</v>
+        <v>85500</v>
       </c>
       <c r="F60" s="3">
-        <v>97800</v>
+        <v>101400</v>
       </c>
       <c r="G60" s="3">
-        <v>67700</v>
+        <v>70100</v>
       </c>
       <c r="H60" s="3">
-        <v>52900</v>
+        <v>54800</v>
       </c>
       <c r="I60" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="J60" s="3">
         <v>1100</v>
@@ -2310,25 +2310,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="E62" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="F62" s="3">
-        <v>10400</v>
+        <v>10800</v>
       </c>
       <c r="G62" s="3">
-        <v>13600</v>
+        <v>14100</v>
       </c>
       <c r="H62" s="3">
-        <v>12300</v>
+        <v>12700</v>
       </c>
       <c r="I62" s="3">
         <v>200</v>
       </c>
       <c r="J62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K62" s="3">
         <v>100</v>
@@ -2442,25 +2442,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>50800</v>
+        <v>52600</v>
       </c>
       <c r="E66" s="3">
-        <v>89900</v>
+        <v>93200</v>
       </c>
       <c r="F66" s="3">
-        <v>113100</v>
+        <v>117200</v>
       </c>
       <c r="G66" s="3">
-        <v>87900</v>
+        <v>91100</v>
       </c>
       <c r="H66" s="3">
-        <v>67600</v>
+        <v>70000</v>
       </c>
       <c r="I66" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="J66" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="K66" s="3">
         <v>400</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="J70" s="3">
         <v>200</v>
@@ -2622,19 +2622,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="E72" s="3">
-        <v>20600</v>
+        <v>21400</v>
       </c>
       <c r="F72" s="3">
-        <v>92700</v>
+        <v>96000</v>
       </c>
       <c r="G72" s="3">
-        <v>50900</v>
+        <v>52700</v>
       </c>
       <c r="H72" s="3">
-        <v>21800</v>
+        <v>22600</v>
       </c>
       <c r="I72" s="3">
         <v>0</v>
@@ -2754,25 +2754,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>166400</v>
+        <v>172500</v>
       </c>
       <c r="E76" s="3">
-        <v>187700</v>
+        <v>194500</v>
       </c>
       <c r="F76" s="3">
-        <v>255000</v>
+        <v>264200</v>
       </c>
       <c r="G76" s="3">
-        <v>210300</v>
+        <v>217900</v>
       </c>
       <c r="H76" s="3">
-        <v>152400</v>
+        <v>157900</v>
       </c>
       <c r="I76" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="J76" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="K76" s="3">
         <v>1700</v>
@@ -2858,19 +2858,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-23000</v>
+        <v>-23900</v>
       </c>
       <c r="E81" s="3">
-        <v>-54300</v>
+        <v>-56300</v>
       </c>
       <c r="F81" s="3">
-        <v>57300</v>
+        <v>59500</v>
       </c>
       <c r="G81" s="3">
-        <v>29100</v>
+        <v>30100</v>
       </c>
       <c r="H81" s="3">
-        <v>21500</v>
+        <v>22300</v>
       </c>
       <c r="I81" s="3">
         <v>1000</v>
@@ -2906,19 +2906,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="E83" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="F83" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="G83" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="H83" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -3104,25 +3104,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-29800</v>
+        <v>-31000</v>
       </c>
       <c r="E89" s="3">
-        <v>-9500</v>
+        <v>-9800</v>
       </c>
       <c r="F89" s="3">
-        <v>86400</v>
+        <v>89700</v>
       </c>
       <c r="G89" s="3">
-        <v>26300</v>
+        <v>27300</v>
       </c>
       <c r="H89" s="3">
-        <v>51700</v>
+        <v>53600</v>
       </c>
       <c r="I89" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="J89" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="K89" s="3">
         <v>200</v>
@@ -3152,19 +3152,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="H91" s="3">
         <v>-1800</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-1700</v>
       </c>
       <c r="I91" s="3">
         <v>-200</v>
@@ -3251,25 +3251,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-51200</v>
+        <v>-53100</v>
       </c>
       <c r="E94" s="3">
-        <v>-5700</v>
+        <v>-5900</v>
       </c>
       <c r="F94" s="3">
-        <v>-10400</v>
+        <v>-10800</v>
       </c>
       <c r="G94" s="3">
         <v>300</v>
       </c>
       <c r="H94" s="3">
-        <v>-10500</v>
+        <v>-10900</v>
       </c>
       <c r="I94" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="J94" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="K94" s="3">
         <v>-800</v>
@@ -3302,10 +3302,10 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-17700</v>
+        <v>-18400</v>
       </c>
       <c r="F96" s="3">
-        <v>-15600</v>
+        <v>-16100</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3434,16 +3434,16 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>-17000</v>
+        <v>-17600</v>
       </c>
       <c r="F100" s="3">
-        <v>-17000</v>
+        <v>-17600</v>
       </c>
       <c r="G100" s="3">
-        <v>16000</v>
+        <v>16600</v>
       </c>
       <c r="H100" s="3">
-        <v>41100</v>
+        <v>42700</v>
       </c>
       <c r="I100" s="3">
         <v>1100</v>
@@ -3464,16 +3464,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="E101" s="3">
         <v>700</v>
       </c>
       <c r="F101" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="G101" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="H101" s="3">
         <v>2100</v>
@@ -3497,22 +3497,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-82600</v>
+        <v>-85700</v>
       </c>
       <c r="E102" s="3">
-        <v>-31500</v>
+        <v>-32700</v>
       </c>
       <c r="F102" s="3">
-        <v>56600</v>
+        <v>58800</v>
       </c>
       <c r="G102" s="3">
-        <v>45900</v>
+        <v>47600</v>
       </c>
       <c r="H102" s="3">
-        <v>84300</v>
+        <v>87500</v>
       </c>
       <c r="I102" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="J102" s="3">
         <v>600</v>

--- a/AAII_Financials/Yearly/JP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JP_YR_FIN.xlsx
@@ -718,25 +718,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>114800</v>
+        <v>120300</v>
       </c>
       <c r="E8" s="3">
-        <v>192600</v>
+        <v>201700</v>
       </c>
       <c r="F8" s="3">
-        <v>248700</v>
+        <v>260500</v>
       </c>
       <c r="G8" s="3">
-        <v>164300</v>
+        <v>172100</v>
       </c>
       <c r="H8" s="3">
-        <v>87500</v>
+        <v>91600</v>
       </c>
       <c r="I8" s="3">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="J8" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="K8" s="3">
         <v>1200</v>
@@ -751,25 +751,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>70700</v>
+        <v>74000</v>
       </c>
       <c r="E9" s="3">
-        <v>100000</v>
+        <v>104800</v>
       </c>
       <c r="F9" s="3">
-        <v>108100</v>
+        <v>113200</v>
       </c>
       <c r="G9" s="3">
-        <v>69800</v>
+        <v>73100</v>
       </c>
       <c r="H9" s="3">
-        <v>35300</v>
+        <v>37000</v>
       </c>
       <c r="I9" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="J9" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
@@ -784,25 +784,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>44200</v>
+        <v>46300</v>
       </c>
       <c r="E10" s="3">
-        <v>92500</v>
+        <v>96900</v>
       </c>
       <c r="F10" s="3">
-        <v>140700</v>
+        <v>147400</v>
       </c>
       <c r="G10" s="3">
-        <v>94500</v>
+        <v>99000</v>
       </c>
       <c r="H10" s="3">
-        <v>52100</v>
+        <v>54600</v>
       </c>
       <c r="I10" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="J10" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="K10" s="3">
         <v>1100</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>38800</v>
+        <v>40700</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -976,25 +976,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>134700</v>
+        <v>141100</v>
       </c>
       <c r="E17" s="3">
-        <v>215700</v>
+        <v>226000</v>
       </c>
       <c r="F17" s="3">
-        <v>172700</v>
+        <v>180900</v>
       </c>
       <c r="G17" s="3">
-        <v>121500</v>
+        <v>127300</v>
       </c>
       <c r="H17" s="3">
-        <v>57900</v>
+        <v>60600</v>
       </c>
       <c r="I17" s="3">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="J17" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K17" s="3">
         <v>400</v>
@@ -1009,25 +1009,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-19800</v>
+        <v>-20800</v>
       </c>
       <c r="E18" s="3">
-        <v>-23100</v>
+        <v>-24200</v>
       </c>
       <c r="F18" s="3">
-        <v>76000</v>
+        <v>79600</v>
       </c>
       <c r="G18" s="3">
-        <v>42800</v>
+        <v>44800</v>
       </c>
       <c r="H18" s="3">
-        <v>29600</v>
+        <v>31000</v>
       </c>
       <c r="I18" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="J18" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K18" s="3">
         <v>800</v>
@@ -1057,19 +1057,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="E20" s="3">
         <v>1200</v>
       </c>
       <c r="F20" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="G20" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="H20" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="I20" s="3">
         <v>300</v>
@@ -1090,25 +1090,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-12900</v>
+        <v>-13400</v>
       </c>
       <c r="E21" s="3">
-        <v>-16700</v>
+        <v>-17500</v>
       </c>
       <c r="F21" s="3">
-        <v>83600</v>
+        <v>87500</v>
       </c>
       <c r="G21" s="3">
-        <v>49500</v>
+        <v>51800</v>
       </c>
       <c r="H21" s="3">
-        <v>35300</v>
+        <v>37000</v>
       </c>
       <c r="I21" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="J21" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="K21" s="3">
         <v>800</v>
@@ -1156,25 +1156,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-16600</v>
+        <v>-17400</v>
       </c>
       <c r="E23" s="3">
-        <v>-22000</v>
+        <v>-23000</v>
       </c>
       <c r="F23" s="3">
-        <v>78800</v>
+        <v>82600</v>
       </c>
       <c r="G23" s="3">
-        <v>45200</v>
+        <v>47300</v>
       </c>
       <c r="H23" s="3">
-        <v>33400</v>
+        <v>35000</v>
       </c>
       <c r="I23" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="J23" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="K23" s="3">
         <v>800</v>
@@ -1189,22 +1189,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7700</v>
+        <v>8100</v>
       </c>
       <c r="E24" s="3">
-        <v>18900</v>
+        <v>19800</v>
       </c>
       <c r="F24" s="3">
-        <v>17900</v>
+        <v>18700</v>
       </c>
       <c r="G24" s="3">
-        <v>12000</v>
+        <v>12600</v>
       </c>
       <c r="H24" s="3">
-        <v>9800</v>
+        <v>10200</v>
       </c>
       <c r="I24" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="J24" s="3">
         <v>500</v>
@@ -1255,25 +1255,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-24300</v>
+        <v>-25500</v>
       </c>
       <c r="E26" s="3">
-        <v>-40900</v>
+        <v>-42800</v>
       </c>
       <c r="F26" s="3">
-        <v>61000</v>
+        <v>63900</v>
       </c>
       <c r="G26" s="3">
-        <v>33200</v>
+        <v>34800</v>
       </c>
       <c r="H26" s="3">
-        <v>23700</v>
+        <v>24800</v>
       </c>
       <c r="I26" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="J26" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="K26" s="3">
         <v>600</v>
@@ -1288,25 +1288,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-23900</v>
+        <v>-25100</v>
       </c>
       <c r="E27" s="3">
-        <v>-56300</v>
+        <v>-59000</v>
       </c>
       <c r="F27" s="3">
-        <v>59500</v>
+        <v>62300</v>
       </c>
       <c r="G27" s="3">
-        <v>30100</v>
+        <v>31600</v>
       </c>
       <c r="H27" s="3">
-        <v>22300</v>
+        <v>23300</v>
       </c>
       <c r="I27" s="3">
         <v>1000</v>
       </c>
       <c r="J27" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="K27" s="3">
         <v>600</v>
@@ -1453,19 +1453,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3200</v>
+        <v>-3400</v>
       </c>
       <c r="E32" s="3">
         <v>-1200</v>
       </c>
       <c r="F32" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="G32" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="H32" s="3">
-        <v>-3800</v>
+        <v>-4000</v>
       </c>
       <c r="I32" s="3">
         <v>-300</v>
@@ -1486,25 +1486,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-23900</v>
+        <v>-25100</v>
       </c>
       <c r="E33" s="3">
-        <v>-56300</v>
+        <v>-59000</v>
       </c>
       <c r="F33" s="3">
-        <v>59500</v>
+        <v>62300</v>
       </c>
       <c r="G33" s="3">
-        <v>30100</v>
+        <v>31600</v>
       </c>
       <c r="H33" s="3">
-        <v>22300</v>
+        <v>23300</v>
       </c>
       <c r="I33" s="3">
         <v>1000</v>
       </c>
       <c r="J33" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="K33" s="3">
         <v>600</v>
@@ -1552,25 +1552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-23900</v>
+        <v>-25100</v>
       </c>
       <c r="E35" s="3">
-        <v>-56300</v>
+        <v>-59000</v>
       </c>
       <c r="F35" s="3">
-        <v>59500</v>
+        <v>62300</v>
       </c>
       <c r="G35" s="3">
-        <v>30100</v>
+        <v>31600</v>
       </c>
       <c r="H35" s="3">
-        <v>22300</v>
+        <v>23300</v>
       </c>
       <c r="I35" s="3">
         <v>1000</v>
       </c>
       <c r="J35" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="K35" s="3">
         <v>600</v>
@@ -1653,22 +1653,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>103300</v>
+        <v>108200</v>
       </c>
       <c r="E41" s="3">
-        <v>188600</v>
+        <v>197500</v>
       </c>
       <c r="F41" s="3">
-        <v>221900</v>
+        <v>232400</v>
       </c>
       <c r="G41" s="3">
-        <v>163100</v>
+        <v>170900</v>
       </c>
       <c r="H41" s="3">
-        <v>115500</v>
+        <v>121000</v>
       </c>
       <c r="I41" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="J41" s="3">
         <v>800</v>
@@ -1692,16 +1692,16 @@
         <v>700</v>
       </c>
       <c r="F42" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="G42" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="H42" s="3">
-        <v>10800</v>
+        <v>11300</v>
       </c>
       <c r="I42" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="J42" s="3">
         <v>1000</v>
@@ -1719,19 +1719,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>15900</v>
+        <v>16600</v>
       </c>
       <c r="E43" s="3">
-        <v>37700</v>
+        <v>39500</v>
       </c>
       <c r="F43" s="3">
-        <v>50100</v>
+        <v>52500</v>
       </c>
       <c r="G43" s="3">
-        <v>38400</v>
+        <v>40300</v>
       </c>
       <c r="H43" s="3">
-        <v>10400</v>
+        <v>10900</v>
       </c>
       <c r="I43" s="3">
         <v>800</v>
@@ -1788,22 +1788,22 @@
         <v>900</v>
       </c>
       <c r="E45" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="F45" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="G45" s="3">
-        <v>9900</v>
+        <v>10400</v>
       </c>
       <c r="H45" s="3">
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="I45" s="3">
         <v>600</v>
       </c>
       <c r="J45" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -1818,25 +1818,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>120000</v>
+        <v>125700</v>
       </c>
       <c r="E46" s="3">
-        <v>229800</v>
+        <v>240700</v>
       </c>
       <c r="F46" s="3">
-        <v>277200</v>
+        <v>290300</v>
       </c>
       <c r="G46" s="3">
-        <v>215100</v>
+        <v>225400</v>
       </c>
       <c r="H46" s="3">
-        <v>144400</v>
+        <v>151200</v>
       </c>
       <c r="I46" s="3">
-        <v>7800</v>
+        <v>8100</v>
       </c>
       <c r="J46" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="K46" s="3">
         <v>1700</v>
@@ -1851,19 +1851,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>82100</v>
+        <v>86000</v>
       </c>
       <c r="E47" s="3">
-        <v>25400</v>
+        <v>26600</v>
       </c>
       <c r="F47" s="3">
-        <v>33700</v>
+        <v>35300</v>
       </c>
       <c r="G47" s="3">
-        <v>22700</v>
+        <v>23800</v>
       </c>
       <c r="H47" s="3">
-        <v>20300</v>
+        <v>21300</v>
       </c>
       <c r="I47" s="3">
         <v>1800</v>
@@ -1884,19 +1884,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14100</v>
+        <v>14700</v>
       </c>
       <c r="E48" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="F48" s="3">
-        <v>6500</v>
+        <v>6800</v>
       </c>
       <c r="G48" s="3">
-        <v>5400</v>
+        <v>5700</v>
       </c>
       <c r="H48" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="I48" s="3">
         <v>200</v>
@@ -1917,19 +1917,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="E49" s="3">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="F49" s="3">
-        <v>48800</v>
+        <v>51100</v>
       </c>
       <c r="G49" s="3">
-        <v>52400</v>
+        <v>54900</v>
       </c>
       <c r="H49" s="3">
-        <v>45700</v>
+        <v>47800</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2016,22 +2016,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="E52" s="3">
-        <v>18700</v>
+        <v>19600</v>
       </c>
       <c r="F52" s="3">
-        <v>15100</v>
+        <v>15900</v>
       </c>
       <c r="G52" s="3">
-        <v>13400</v>
+        <v>14000</v>
       </c>
       <c r="H52" s="3">
-        <v>15200</v>
+        <v>16000</v>
       </c>
       <c r="I52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -2082,25 +2082,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>225100</v>
+        <v>235700</v>
       </c>
       <c r="E54" s="3">
-        <v>287600</v>
+        <v>301300</v>
       </c>
       <c r="F54" s="3">
-        <v>381400</v>
+        <v>399500</v>
       </c>
       <c r="G54" s="3">
-        <v>309100</v>
+        <v>323700</v>
       </c>
       <c r="H54" s="3">
-        <v>227900</v>
+        <v>238700</v>
       </c>
       <c r="I54" s="3">
-        <v>9800</v>
+        <v>10200</v>
       </c>
       <c r="J54" s="3">
-        <v>4700</v>
+        <v>5000</v>
       </c>
       <c r="K54" s="3">
         <v>2200</v>
@@ -2211,25 +2211,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>46100</v>
+        <v>48200</v>
       </c>
       <c r="E59" s="3">
-        <v>85500</v>
+        <v>89600</v>
       </c>
       <c r="F59" s="3">
-        <v>101400</v>
+        <v>106200</v>
       </c>
       <c r="G59" s="3">
-        <v>70100</v>
+        <v>73500</v>
       </c>
       <c r="H59" s="3">
-        <v>55000</v>
+        <v>57600</v>
       </c>
       <c r="I59" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="J59" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K59" s="3">
         <v>300</v>
@@ -2244,25 +2244,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>46100</v>
+        <v>48200</v>
       </c>
       <c r="E60" s="3">
-        <v>85500</v>
+        <v>89600</v>
       </c>
       <c r="F60" s="3">
-        <v>101400</v>
+        <v>106200</v>
       </c>
       <c r="G60" s="3">
-        <v>70100</v>
+        <v>73500</v>
       </c>
       <c r="H60" s="3">
-        <v>54800</v>
+        <v>57400</v>
       </c>
       <c r="I60" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="J60" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K60" s="3">
         <v>300</v>
@@ -2310,19 +2310,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="E62" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="F62" s="3">
-        <v>10800</v>
+        <v>11300</v>
       </c>
       <c r="G62" s="3">
-        <v>14100</v>
+        <v>14700</v>
       </c>
       <c r="H62" s="3">
-        <v>12700</v>
+        <v>13300</v>
       </c>
       <c r="I62" s="3">
         <v>200</v>
@@ -2442,22 +2442,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>52600</v>
+        <v>55100</v>
       </c>
       <c r="E66" s="3">
-        <v>93200</v>
+        <v>97600</v>
       </c>
       <c r="F66" s="3">
-        <v>117200</v>
+        <v>122700</v>
       </c>
       <c r="G66" s="3">
-        <v>91100</v>
+        <v>95400</v>
       </c>
       <c r="H66" s="3">
-        <v>70000</v>
+        <v>73400</v>
       </c>
       <c r="I66" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="J66" s="3">
         <v>1400</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="J70" s="3">
         <v>200</v>
@@ -2622,25 +2622,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="E72" s="3">
-        <v>21400</v>
+        <v>22400</v>
       </c>
       <c r="F72" s="3">
-        <v>96000</v>
+        <v>100600</v>
       </c>
       <c r="G72" s="3">
-        <v>52700</v>
+        <v>55200</v>
       </c>
       <c r="H72" s="3">
-        <v>22600</v>
+        <v>23600</v>
       </c>
       <c r="I72" s="3">
         <v>0</v>
       </c>
       <c r="J72" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="K72" s="3">
         <v>800</v>
@@ -2754,25 +2754,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>172500</v>
+        <v>180700</v>
       </c>
       <c r="E76" s="3">
-        <v>194500</v>
+        <v>203700</v>
       </c>
       <c r="F76" s="3">
-        <v>264200</v>
+        <v>276800</v>
       </c>
       <c r="G76" s="3">
-        <v>217900</v>
+        <v>228300</v>
       </c>
       <c r="H76" s="3">
-        <v>157900</v>
+        <v>165400</v>
       </c>
       <c r="I76" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="J76" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="K76" s="3">
         <v>1700</v>
@@ -2858,25 +2858,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-23900</v>
+        <v>-25100</v>
       </c>
       <c r="E81" s="3">
-        <v>-56300</v>
+        <v>-59000</v>
       </c>
       <c r="F81" s="3">
-        <v>59500</v>
+        <v>62300</v>
       </c>
       <c r="G81" s="3">
-        <v>30100</v>
+        <v>31600</v>
       </c>
       <c r="H81" s="3">
-        <v>22300</v>
+        <v>23300</v>
       </c>
       <c r="I81" s="3">
         <v>1000</v>
       </c>
       <c r="J81" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="K81" s="3">
         <v>600</v>
@@ -2906,19 +2906,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="E83" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="F83" s="3">
-        <v>4700</v>
+        <v>5000</v>
       </c>
       <c r="G83" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="H83" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -3104,25 +3104,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-31000</v>
+        <v>-32400</v>
       </c>
       <c r="E89" s="3">
-        <v>-9800</v>
+        <v>-10300</v>
       </c>
       <c r="F89" s="3">
-        <v>89700</v>
+        <v>93900</v>
       </c>
       <c r="G89" s="3">
-        <v>27300</v>
+        <v>28600</v>
       </c>
       <c r="H89" s="3">
-        <v>53600</v>
+        <v>56100</v>
       </c>
       <c r="I89" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="J89" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="K89" s="3">
         <v>200</v>
@@ -3152,19 +3152,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="E91" s="3">
         <v>-1400</v>
       </c>
       <c r="F91" s="3">
-        <v>-5700</v>
+        <v>-5900</v>
       </c>
       <c r="G91" s="3">
-        <v>-7600</v>
+        <v>-8000</v>
       </c>
       <c r="H91" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="I91" s="3">
         <v>-200</v>
@@ -3251,25 +3251,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-53100</v>
+        <v>-55600</v>
       </c>
       <c r="E94" s="3">
-        <v>-5900</v>
+        <v>-6200</v>
       </c>
       <c r="F94" s="3">
-        <v>-10800</v>
+        <v>-11300</v>
       </c>
       <c r="G94" s="3">
         <v>300</v>
       </c>
       <c r="H94" s="3">
-        <v>-10900</v>
+        <v>-11500</v>
       </c>
       <c r="I94" s="3">
         <v>-900</v>
       </c>
       <c r="J94" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="K94" s="3">
         <v>-800</v>
@@ -3302,10 +3302,10 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-18400</v>
+        <v>-19200</v>
       </c>
       <c r="F96" s="3">
-        <v>-16100</v>
+        <v>-16900</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3434,19 +3434,19 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>-17600</v>
+        <v>-18500</v>
       </c>
       <c r="F100" s="3">
-        <v>-17600</v>
+        <v>-18400</v>
       </c>
       <c r="G100" s="3">
-        <v>16600</v>
+        <v>17400</v>
       </c>
       <c r="H100" s="3">
-        <v>42700</v>
+        <v>44700</v>
       </c>
       <c r="I100" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="J100" s="3">
         <v>300</v>
@@ -3470,13 +3470,13 @@
         <v>700</v>
       </c>
       <c r="F101" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="G101" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="H101" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
@@ -3497,25 +3497,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-85700</v>
+        <v>-89800</v>
       </c>
       <c r="E102" s="3">
-        <v>-32700</v>
+        <v>-34300</v>
       </c>
       <c r="F102" s="3">
-        <v>58800</v>
+        <v>61500</v>
       </c>
       <c r="G102" s="3">
-        <v>47600</v>
+        <v>49800</v>
       </c>
       <c r="H102" s="3">
-        <v>87500</v>
+        <v>91600</v>
       </c>
       <c r="I102" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="J102" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K102" s="3">
         <v>100</v>

--- a/AAII_Financials/Yearly/JP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JP_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>JP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,154 +665,166 @@
     <col min="1" max="1" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>120300</v>
+        <v>59600</v>
       </c>
       <c r="E8" s="3">
-        <v>201700</v>
+        <v>120800</v>
       </c>
       <c r="F8" s="3">
-        <v>260500</v>
+        <v>202600</v>
       </c>
       <c r="G8" s="3">
-        <v>172100</v>
+        <v>261700</v>
       </c>
       <c r="H8" s="3">
-        <v>91600</v>
+        <v>172900</v>
       </c>
       <c r="I8" s="3">
+        <v>92000</v>
+      </c>
+      <c r="J8" s="3">
         <v>5900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1200</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>74000</v>
+        <v>31700</v>
       </c>
       <c r="E9" s="3">
-        <v>104800</v>
+        <v>74300</v>
       </c>
       <c r="F9" s="3">
-        <v>113200</v>
+        <v>105200</v>
       </c>
       <c r="G9" s="3">
-        <v>73100</v>
+        <v>113700</v>
       </c>
       <c r="H9" s="3">
-        <v>37000</v>
+        <v>73400</v>
       </c>
       <c r="I9" s="3">
+        <v>37200</v>
+      </c>
+      <c r="J9" s="3">
         <v>1600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>100</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>46300</v>
+        <v>27900</v>
       </c>
       <c r="E10" s="3">
-        <v>96900</v>
+        <v>46500</v>
       </c>
       <c r="F10" s="3">
-        <v>147400</v>
+        <v>97300</v>
       </c>
       <c r="G10" s="3">
-        <v>99000</v>
+        <v>148000</v>
       </c>
       <c r="H10" s="3">
-        <v>54600</v>
+        <v>99400</v>
       </c>
       <c r="I10" s="3">
+        <v>54900</v>
+      </c>
+      <c r="J10" s="3">
         <v>4300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1100</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +838,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,23 +907,26 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>40700</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>40800</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -918,15 +937,18 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -957,9 +979,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,74 +995,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>141100</v>
+        <v>64800</v>
       </c>
       <c r="E17" s="3">
-        <v>226000</v>
+        <v>141700</v>
       </c>
       <c r="F17" s="3">
-        <v>180900</v>
+        <v>226900</v>
       </c>
       <c r="G17" s="3">
-        <v>127300</v>
+        <v>181700</v>
       </c>
       <c r="H17" s="3">
-        <v>60600</v>
+        <v>127800</v>
       </c>
       <c r="I17" s="3">
+        <v>60900</v>
+      </c>
+      <c r="J17" s="3">
         <v>3200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-20800</v>
+        <v>-5300</v>
       </c>
       <c r="E18" s="3">
-        <v>-24200</v>
+        <v>-20900</v>
       </c>
       <c r="F18" s="3">
-        <v>79600</v>
+        <v>-24400</v>
       </c>
       <c r="G18" s="3">
-        <v>44800</v>
+        <v>80000</v>
       </c>
       <c r="H18" s="3">
-        <v>31000</v>
+        <v>45000</v>
       </c>
       <c r="I18" s="3">
+        <v>31100</v>
+      </c>
+      <c r="J18" s="3">
         <v>2700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>800</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,74 +1083,81 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>3400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1200</v>
       </c>
-      <c r="F20" s="3">
-        <v>2900</v>
-      </c>
       <c r="G20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H20" s="3">
         <v>2500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-13400</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>-17500</v>
+        <v>-13500</v>
       </c>
       <c r="F21" s="3">
-        <v>87500</v>
+        <v>-17600</v>
       </c>
       <c r="G21" s="3">
-        <v>51800</v>
+        <v>87900</v>
       </c>
       <c r="H21" s="3">
-        <v>37000</v>
+        <v>52100</v>
       </c>
       <c r="I21" s="3">
+        <v>37200</v>
+      </c>
+      <c r="J21" s="3">
         <v>3100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>800</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1131,8 +1170,8 @@
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1146,78 +1185,87 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-17400</v>
+        <v>-5200</v>
       </c>
       <c r="E23" s="3">
-        <v>-23000</v>
+        <v>-17500</v>
       </c>
       <c r="F23" s="3">
-        <v>82600</v>
+        <v>-23100</v>
       </c>
       <c r="G23" s="3">
-        <v>47300</v>
+        <v>82900</v>
       </c>
       <c r="H23" s="3">
-        <v>35000</v>
+        <v>47500</v>
       </c>
       <c r="I23" s="3">
+        <v>35200</v>
+      </c>
+      <c r="J23" s="3">
         <v>3100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>800</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>8100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>19800</v>
       </c>
-      <c r="F24" s="3">
-        <v>18700</v>
-      </c>
       <c r="G24" s="3">
+        <v>18800</v>
+      </c>
+      <c r="H24" s="3">
         <v>12600</v>
       </c>
-      <c r="H24" s="3">
-        <v>10200</v>
-      </c>
       <c r="I24" s="3">
+        <v>10300</v>
+      </c>
+      <c r="J24" s="3">
         <v>900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,75 +1296,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-25500</v>
+        <v>-5300</v>
       </c>
       <c r="E26" s="3">
-        <v>-42800</v>
+        <v>-25600</v>
       </c>
       <c r="F26" s="3">
-        <v>63900</v>
+        <v>-43000</v>
       </c>
       <c r="G26" s="3">
-        <v>34800</v>
+        <v>64200</v>
       </c>
       <c r="H26" s="3">
-        <v>24800</v>
+        <v>34900</v>
       </c>
       <c r="I26" s="3">
+        <v>24900</v>
+      </c>
+      <c r="J26" s="3">
         <v>2200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>600</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-25100</v>
+        <v>-4800</v>
       </c>
       <c r="E27" s="3">
-        <v>-59000</v>
+        <v>-25200</v>
       </c>
       <c r="F27" s="3">
-        <v>62300</v>
+        <v>-59200</v>
       </c>
       <c r="G27" s="3">
-        <v>31600</v>
+        <v>62600</v>
       </c>
       <c r="H27" s="3">
-        <v>23300</v>
+        <v>31700</v>
       </c>
       <c r="I27" s="3">
+        <v>23400</v>
+      </c>
+      <c r="J27" s="3">
         <v>1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>600</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,75 +1512,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1200</v>
       </c>
-      <c r="F32" s="3">
-        <v>-2900</v>
-      </c>
       <c r="G32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="H32" s="3">
         <v>-2500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-25100</v>
+        <v>-4800</v>
       </c>
       <c r="E33" s="3">
-        <v>-59000</v>
+        <v>-25200</v>
       </c>
       <c r="F33" s="3">
-        <v>62300</v>
+        <v>-59200</v>
       </c>
       <c r="G33" s="3">
-        <v>31600</v>
+        <v>62600</v>
       </c>
       <c r="H33" s="3">
-        <v>23300</v>
+        <v>31700</v>
       </c>
       <c r="I33" s="3">
+        <v>23400</v>
+      </c>
+      <c r="J33" s="3">
         <v>1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>600</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,80 +1620,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-25100</v>
+        <v>-4800</v>
       </c>
       <c r="E35" s="3">
-        <v>-59000</v>
+        <v>-25200</v>
       </c>
       <c r="F35" s="3">
-        <v>62300</v>
+        <v>-59200</v>
       </c>
       <c r="G35" s="3">
-        <v>31600</v>
+        <v>62600</v>
       </c>
       <c r="H35" s="3">
-        <v>23300</v>
+        <v>31700</v>
       </c>
       <c r="I35" s="3">
+        <v>23400</v>
+      </c>
+      <c r="J35" s="3">
         <v>1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>600</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,107 +1732,117 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>108200</v>
+        <v>96300</v>
       </c>
       <c r="E41" s="3">
-        <v>197500</v>
+        <v>108700</v>
       </c>
       <c r="F41" s="3">
-        <v>232400</v>
+        <v>198400</v>
       </c>
       <c r="G41" s="3">
-        <v>170900</v>
+        <v>233400</v>
       </c>
       <c r="H41" s="3">
-        <v>121000</v>
+        <v>171600</v>
       </c>
       <c r="I41" s="3">
+        <v>121500</v>
+      </c>
+      <c r="J41" s="3">
         <v>4800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>3500</v>
       </c>
-      <c r="G42" s="3">
-        <v>3800</v>
-      </c>
       <c r="H42" s="3">
-        <v>11300</v>
+        <v>3900</v>
       </c>
       <c r="I42" s="3">
+        <v>11400</v>
+      </c>
+      <c r="J42" s="3">
         <v>2000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>300</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>16600</v>
+        <v>12400</v>
       </c>
       <c r="E43" s="3">
-        <v>39500</v>
+        <v>16700</v>
       </c>
       <c r="F43" s="3">
-        <v>52500</v>
+        <v>39600</v>
       </c>
       <c r="G43" s="3">
-        <v>40300</v>
+        <v>52700</v>
       </c>
       <c r="H43" s="3">
+        <v>40400</v>
+      </c>
+      <c r="I43" s="3">
         <v>10900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1100</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1778,161 +1873,176 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E45" s="3">
         <v>900</v>
       </c>
-      <c r="E45" s="3">
-        <v>2900</v>
-      </c>
       <c r="F45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G45" s="3">
         <v>1900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>125700</v>
+        <v>115300</v>
       </c>
       <c r="E46" s="3">
-        <v>240700</v>
+        <v>126300</v>
       </c>
       <c r="F46" s="3">
-        <v>290300</v>
+        <v>241700</v>
       </c>
       <c r="G46" s="3">
-        <v>225400</v>
+        <v>291600</v>
       </c>
       <c r="H46" s="3">
-        <v>151200</v>
+        <v>226300</v>
       </c>
       <c r="I46" s="3">
-        <v>8100</v>
+        <v>151900</v>
       </c>
       <c r="J46" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K46" s="3">
         <v>3900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1700</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>86000</v>
+        <v>83800</v>
       </c>
       <c r="E47" s="3">
-        <v>26600</v>
+        <v>86400</v>
       </c>
       <c r="F47" s="3">
-        <v>35300</v>
+        <v>26700</v>
       </c>
       <c r="G47" s="3">
-        <v>23800</v>
+        <v>35500</v>
       </c>
       <c r="H47" s="3">
-        <v>21300</v>
+        <v>23900</v>
       </c>
       <c r="I47" s="3">
+        <v>21400</v>
+      </c>
+      <c r="J47" s="3">
         <v>1800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>500</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14700</v>
+        <v>8600</v>
       </c>
       <c r="E48" s="3">
+        <v>14800</v>
+      </c>
+      <c r="F48" s="3">
         <v>5500</v>
       </c>
-      <c r="F48" s="3">
-        <v>6800</v>
-      </c>
       <c r="G48" s="3">
+        <v>6900</v>
+      </c>
+      <c r="H48" s="3">
         <v>5700</v>
       </c>
-      <c r="H48" s="3">
-        <v>2400</v>
-      </c>
       <c r="I48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J48" s="3">
         <v>200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>100</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E49" s="3">
         <v>5800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>8900</v>
       </c>
-      <c r="F49" s="3">
-        <v>51100</v>
-      </c>
       <c r="G49" s="3">
-        <v>54900</v>
+        <v>51300</v>
       </c>
       <c r="H49" s="3">
-        <v>47800</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+        <v>55100</v>
+      </c>
+      <c r="I49" s="3">
+        <v>48000</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -1943,9 +2053,12 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,42 +2125,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E52" s="3">
         <v>3400</v>
       </c>
-      <c r="E52" s="3">
-        <v>19600</v>
-      </c>
       <c r="F52" s="3">
+        <v>19700</v>
+      </c>
+      <c r="G52" s="3">
         <v>15900</v>
       </c>
-      <c r="G52" s="3">
-        <v>14000</v>
-      </c>
       <c r="H52" s="3">
+        <v>14100</v>
+      </c>
+      <c r="I52" s="3">
         <v>16000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,42 +2197,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>235700</v>
+        <v>215600</v>
       </c>
       <c r="E54" s="3">
-        <v>301300</v>
+        <v>236800</v>
       </c>
       <c r="F54" s="3">
-        <v>399500</v>
+        <v>302600</v>
       </c>
       <c r="G54" s="3">
-        <v>323700</v>
+        <v>401200</v>
       </c>
       <c r="H54" s="3">
-        <v>238700</v>
+        <v>325100</v>
       </c>
       <c r="I54" s="3">
-        <v>10200</v>
+        <v>239800</v>
       </c>
       <c r="J54" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K54" s="3">
         <v>5000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2200</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,8 +2268,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2165,15 +2295,18 @@
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
+      <c r="K57" s="3">
+        <v>0</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2204,75 +2337,84 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>48200</v>
+        <v>36900</v>
       </c>
       <c r="E59" s="3">
-        <v>89600</v>
+        <v>48500</v>
       </c>
       <c r="F59" s="3">
-        <v>106200</v>
+        <v>90000</v>
       </c>
       <c r="G59" s="3">
-        <v>73500</v>
+        <v>106600</v>
       </c>
       <c r="H59" s="3">
-        <v>57600</v>
+        <v>73800</v>
       </c>
       <c r="I59" s="3">
+        <v>57900</v>
+      </c>
+      <c r="J59" s="3">
         <v>3000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>48200</v>
+        <v>36900</v>
       </c>
       <c r="E60" s="3">
-        <v>89600</v>
+        <v>48500</v>
       </c>
       <c r="F60" s="3">
-        <v>106200</v>
+        <v>90000</v>
       </c>
       <c r="G60" s="3">
-        <v>73500</v>
+        <v>106600</v>
       </c>
       <c r="H60" s="3">
-        <v>57400</v>
+        <v>73800</v>
       </c>
       <c r="I60" s="3">
+        <v>57700</v>
+      </c>
+      <c r="J60" s="3">
         <v>3000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2303,42 +2445,48 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5100</v>
+        <v>3900</v>
       </c>
       <c r="E62" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F62" s="3">
         <v>3700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>11300</v>
       </c>
-      <c r="G62" s="3">
-        <v>14700</v>
-      </c>
       <c r="H62" s="3">
-        <v>13300</v>
+        <v>14800</v>
       </c>
       <c r="I62" s="3">
-        <v>200</v>
+        <v>13400</v>
       </c>
       <c r="J62" s="3">
         <v>200</v>
       </c>
       <c r="K62" s="3">
+        <v>200</v>
+      </c>
+      <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,42 +2589,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>55100</v>
+        <v>40800</v>
       </c>
       <c r="E66" s="3">
-        <v>97600</v>
+        <v>55300</v>
       </c>
       <c r="F66" s="3">
-        <v>122700</v>
+        <v>98000</v>
       </c>
       <c r="G66" s="3">
-        <v>95400</v>
+        <v>123300</v>
       </c>
       <c r="H66" s="3">
-        <v>73400</v>
+        <v>95900</v>
       </c>
       <c r="I66" s="3">
+        <v>73700</v>
+      </c>
+      <c r="J66" s="3">
         <v>3300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>400</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2571,20 +2738,23 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>5800</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K70" s="3">
         <v>200</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,42 +2785,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2700</v>
       </c>
-      <c r="E72" s="3">
-        <v>22400</v>
-      </c>
       <c r="F72" s="3">
-        <v>100600</v>
+        <v>22500</v>
       </c>
       <c r="G72" s="3">
-        <v>55200</v>
+        <v>101000</v>
       </c>
       <c r="H72" s="3">
-        <v>23600</v>
+        <v>55400</v>
       </c>
       <c r="I72" s="3">
-        <v>0</v>
+        <v>23700</v>
       </c>
       <c r="J72" s="3">
+        <v>0</v>
+      </c>
+      <c r="K72" s="3">
         <v>2200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>800</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,42 +2929,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>180700</v>
+        <v>174900</v>
       </c>
       <c r="E76" s="3">
-        <v>203700</v>
+        <v>181400</v>
       </c>
       <c r="F76" s="3">
-        <v>276800</v>
+        <v>204600</v>
       </c>
       <c r="G76" s="3">
-        <v>228300</v>
+        <v>278000</v>
       </c>
       <c r="H76" s="3">
-        <v>165400</v>
+        <v>229300</v>
       </c>
       <c r="I76" s="3">
-        <v>1200</v>
+        <v>166100</v>
       </c>
       <c r="J76" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K76" s="3">
         <v>3300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1700</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,80 +3001,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-25100</v>
+        <v>-4800</v>
       </c>
       <c r="E81" s="3">
-        <v>-59000</v>
+        <v>-25200</v>
       </c>
       <c r="F81" s="3">
-        <v>62300</v>
+        <v>-59200</v>
       </c>
       <c r="G81" s="3">
-        <v>31600</v>
+        <v>62600</v>
       </c>
       <c r="H81" s="3">
-        <v>23300</v>
+        <v>31700</v>
       </c>
       <c r="I81" s="3">
+        <v>23400</v>
+      </c>
+      <c r="J81" s="3">
         <v>1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>600</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,41 +3097,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3">
         <v>4000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,42 +3310,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-32400</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="3">
+        <v>-32600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-10300</v>
       </c>
-      <c r="F89" s="3">
-        <v>93900</v>
-      </c>
       <c r="G89" s="3">
-        <v>28600</v>
+        <v>94300</v>
       </c>
       <c r="H89" s="3">
-        <v>56100</v>
+        <v>28800</v>
       </c>
       <c r="I89" s="3">
+        <v>56400</v>
+      </c>
+      <c r="J89" s="3">
         <v>3700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>200</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,41 +3365,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1400</v>
       </c>
-      <c r="F91" s="3">
-        <v>-5900</v>
-      </c>
       <c r="G91" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="H91" s="3">
         <v>-8000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,42 +3470,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-55600</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3">
+        <v>-55900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-6200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-11300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-11500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-800</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3302,13 +3535,13 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-19200</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-16900</v>
+        <v>-19300</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-17000</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,106 +3666,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="G100" s="3">
         <v>-18500</v>
       </c>
-      <c r="F100" s="3">
-        <v>-18400</v>
-      </c>
-      <c r="G100" s="3">
-        <v>17400</v>
-      </c>
       <c r="H100" s="3">
-        <v>44700</v>
+        <v>17500</v>
       </c>
       <c r="I100" s="3">
+        <v>44900</v>
+      </c>
+      <c r="J100" s="3">
         <v>1200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>3500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2200</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-89800</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
-        <v>-34300</v>
+        <v>-90200</v>
       </c>
       <c r="F102" s="3">
-        <v>61500</v>
+        <v>-34400</v>
       </c>
       <c r="G102" s="3">
-        <v>49800</v>
+        <v>61800</v>
       </c>
       <c r="H102" s="3">
-        <v>91600</v>
+        <v>50100</v>
       </c>
       <c r="I102" s="3">
+        <v>92000</v>
+      </c>
+      <c r="J102" s="3">
         <v>4000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/JP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JP_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>JP</t>
   </si>
@@ -721,25 +721,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>59600</v>
+        <v>60800</v>
       </c>
       <c r="E8" s="3">
-        <v>120800</v>
+        <v>123400</v>
       </c>
       <c r="F8" s="3">
-        <v>202600</v>
+        <v>206900</v>
       </c>
       <c r="G8" s="3">
-        <v>261700</v>
+        <v>267200</v>
       </c>
       <c r="H8" s="3">
-        <v>172900</v>
+        <v>176500</v>
       </c>
       <c r="I8" s="3">
-        <v>92000</v>
+        <v>94000</v>
       </c>
       <c r="J8" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="K8" s="3">
         <v>3400</v>
@@ -757,25 +757,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>31700</v>
+        <v>32300</v>
       </c>
       <c r="E9" s="3">
-        <v>74300</v>
+        <v>75900</v>
       </c>
       <c r="F9" s="3">
-        <v>105200</v>
+        <v>107500</v>
       </c>
       <c r="G9" s="3">
-        <v>113700</v>
+        <v>116100</v>
       </c>
       <c r="H9" s="3">
-        <v>73400</v>
+        <v>75000</v>
       </c>
       <c r="I9" s="3">
-        <v>37200</v>
+        <v>38000</v>
       </c>
       <c r="J9" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K9" s="3">
         <v>600</v>
@@ -793,25 +793,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>27900</v>
+        <v>28500</v>
       </c>
       <c r="E10" s="3">
-        <v>46500</v>
+        <v>47500</v>
       </c>
       <c r="F10" s="3">
-        <v>97300</v>
+        <v>99400</v>
       </c>
       <c r="G10" s="3">
-        <v>148000</v>
+        <v>151100</v>
       </c>
       <c r="H10" s="3">
-        <v>99400</v>
+        <v>101500</v>
       </c>
       <c r="I10" s="3">
-        <v>54900</v>
+        <v>56000</v>
       </c>
       <c r="J10" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="K10" s="3">
         <v>2800</v>
@@ -916,14 +916,14 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>40800</v>
+        <v>41700</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>64800</v>
+        <v>66200</v>
       </c>
       <c r="E17" s="3">
-        <v>141700</v>
+        <v>144700</v>
       </c>
       <c r="F17" s="3">
-        <v>226900</v>
+        <v>231700</v>
       </c>
       <c r="G17" s="3">
-        <v>181700</v>
+        <v>185500</v>
       </c>
       <c r="H17" s="3">
-        <v>127800</v>
+        <v>130500</v>
       </c>
       <c r="I17" s="3">
-        <v>60900</v>
+        <v>62200</v>
       </c>
       <c r="J17" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="K17" s="3">
         <v>1700</v>
@@ -1038,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="E18" s="3">
-        <v>-20900</v>
+        <v>-21300</v>
       </c>
       <c r="F18" s="3">
-        <v>-24400</v>
+        <v>-24900</v>
       </c>
       <c r="G18" s="3">
-        <v>80000</v>
+        <v>81700</v>
       </c>
       <c r="H18" s="3">
-        <v>45000</v>
+        <v>46000</v>
       </c>
       <c r="I18" s="3">
-        <v>31100</v>
+        <v>31800</v>
       </c>
       <c r="J18" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="K18" s="3">
         <v>1700</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="F20" s="3">
         <v>1200</v>
@@ -1105,7 +1105,7 @@
         <v>2500</v>
       </c>
       <c r="I20" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="J20" s="3">
         <v>300</v>
@@ -1125,26 +1125,26 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-2800</v>
       </c>
       <c r="E21" s="3">
-        <v>-13500</v>
+        <v>-13800</v>
       </c>
       <c r="F21" s="3">
-        <v>-17600</v>
+        <v>-18000</v>
       </c>
       <c r="G21" s="3">
-        <v>87900</v>
+        <v>89800</v>
       </c>
       <c r="H21" s="3">
-        <v>52100</v>
+        <v>53200</v>
       </c>
       <c r="I21" s="3">
-        <v>37200</v>
+        <v>37900</v>
       </c>
       <c r="J21" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="K21" s="3">
         <v>1900</v>
@@ -1198,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="E23" s="3">
-        <v>-17500</v>
+        <v>-17900</v>
       </c>
       <c r="F23" s="3">
-        <v>-23100</v>
+        <v>-23600</v>
       </c>
       <c r="G23" s="3">
-        <v>82900</v>
+        <v>84700</v>
       </c>
       <c r="H23" s="3">
-        <v>47500</v>
+        <v>48500</v>
       </c>
       <c r="I23" s="3">
-        <v>35200</v>
+        <v>35900</v>
       </c>
       <c r="J23" s="3">
         <v>3100</v>
@@ -1237,19 +1237,19 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>8100</v>
+        <v>8300</v>
       </c>
       <c r="F24" s="3">
-        <v>19800</v>
+        <v>20300</v>
       </c>
       <c r="G24" s="3">
-        <v>18800</v>
+        <v>19200</v>
       </c>
       <c r="H24" s="3">
-        <v>12600</v>
+        <v>12900</v>
       </c>
       <c r="I24" s="3">
-        <v>10300</v>
+        <v>10500</v>
       </c>
       <c r="J24" s="3">
         <v>900</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-5300</v>
+        <v>-5500</v>
       </c>
       <c r="E26" s="3">
-        <v>-25600</v>
+        <v>-26100</v>
       </c>
       <c r="F26" s="3">
-        <v>-43000</v>
+        <v>-43900</v>
       </c>
       <c r="G26" s="3">
-        <v>64200</v>
+        <v>65500</v>
       </c>
       <c r="H26" s="3">
-        <v>34900</v>
+        <v>35600</v>
       </c>
       <c r="I26" s="3">
-        <v>24900</v>
+        <v>25400</v>
       </c>
       <c r="J26" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="K26" s="3">
         <v>1400</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="E27" s="3">
-        <v>-25200</v>
+        <v>-25700</v>
       </c>
       <c r="F27" s="3">
-        <v>-59200</v>
+        <v>-60500</v>
       </c>
       <c r="G27" s="3">
-        <v>62600</v>
+        <v>63900</v>
       </c>
       <c r="H27" s="3">
-        <v>31700</v>
+        <v>32400</v>
       </c>
       <c r="I27" s="3">
-        <v>23400</v>
+        <v>23900</v>
       </c>
       <c r="J27" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K27" s="3">
         <v>1400</v>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="F32" s="3">
         <v>-1200</v>
@@ -1537,7 +1537,7 @@
         <v>-2500</v>
       </c>
       <c r="I32" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="J32" s="3">
         <v>-300</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="E33" s="3">
-        <v>-25200</v>
+        <v>-25700</v>
       </c>
       <c r="F33" s="3">
-        <v>-59200</v>
+        <v>-60500</v>
       </c>
       <c r="G33" s="3">
-        <v>62600</v>
+        <v>63900</v>
       </c>
       <c r="H33" s="3">
-        <v>31700</v>
+        <v>32400</v>
       </c>
       <c r="I33" s="3">
-        <v>23400</v>
+        <v>23900</v>
       </c>
       <c r="J33" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K33" s="3">
         <v>1400</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="E35" s="3">
-        <v>-25200</v>
+        <v>-25700</v>
       </c>
       <c r="F35" s="3">
-        <v>-59200</v>
+        <v>-60500</v>
       </c>
       <c r="G35" s="3">
-        <v>62600</v>
+        <v>63900</v>
       </c>
       <c r="H35" s="3">
-        <v>31700</v>
+        <v>32400</v>
       </c>
       <c r="I35" s="3">
-        <v>23400</v>
+        <v>23900</v>
       </c>
       <c r="J35" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K35" s="3">
         <v>1400</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>96300</v>
+        <v>98400</v>
       </c>
       <c r="E41" s="3">
-        <v>108700</v>
+        <v>111000</v>
       </c>
       <c r="F41" s="3">
-        <v>198400</v>
+        <v>202600</v>
       </c>
       <c r="G41" s="3">
-        <v>233400</v>
+        <v>238300</v>
       </c>
       <c r="H41" s="3">
-        <v>171600</v>
+        <v>175200</v>
       </c>
       <c r="I41" s="3">
-        <v>121500</v>
+        <v>124100</v>
       </c>
       <c r="J41" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="K41" s="3">
         <v>800</v>
@@ -1784,13 +1784,13 @@
         <v>700</v>
       </c>
       <c r="G42" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="H42" s="3">
         <v>3900</v>
       </c>
       <c r="I42" s="3">
-        <v>11400</v>
+        <v>11600</v>
       </c>
       <c r="J42" s="3">
         <v>2000</v>
@@ -1811,22 +1811,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12400</v>
+        <v>12700</v>
       </c>
       <c r="E43" s="3">
-        <v>16700</v>
+        <v>17100</v>
       </c>
       <c r="F43" s="3">
-        <v>39600</v>
+        <v>40500</v>
       </c>
       <c r="G43" s="3">
-        <v>52700</v>
+        <v>53900</v>
       </c>
       <c r="H43" s="3">
-        <v>40400</v>
+        <v>41300</v>
       </c>
       <c r="I43" s="3">
-        <v>10900</v>
+        <v>11200</v>
       </c>
       <c r="J43" s="3">
         <v>800</v>
@@ -1883,7 +1883,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="E45" s="3">
         <v>900</v>
@@ -1895,10 +1895,10 @@
         <v>1900</v>
       </c>
       <c r="H45" s="3">
-        <v>10400</v>
+        <v>10700</v>
       </c>
       <c r="I45" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="J45" s="3">
         <v>600</v>
@@ -1919,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>115300</v>
+        <v>117700</v>
       </c>
       <c r="E46" s="3">
-        <v>126300</v>
+        <v>129000</v>
       </c>
       <c r="F46" s="3">
-        <v>241700</v>
+        <v>246800</v>
       </c>
       <c r="G46" s="3">
-        <v>291600</v>
+        <v>297700</v>
       </c>
       <c r="H46" s="3">
-        <v>226300</v>
+        <v>231100</v>
       </c>
       <c r="I46" s="3">
-        <v>151900</v>
+        <v>155100</v>
       </c>
       <c r="J46" s="3">
-        <v>8200</v>
+        <v>8400</v>
       </c>
       <c r="K46" s="3">
         <v>3900</v>
@@ -1955,25 +1955,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>83800</v>
+        <v>85600</v>
       </c>
       <c r="E47" s="3">
-        <v>86400</v>
+        <v>88200</v>
       </c>
       <c r="F47" s="3">
-        <v>26700</v>
+        <v>27300</v>
       </c>
       <c r="G47" s="3">
-        <v>35500</v>
+        <v>36300</v>
       </c>
       <c r="H47" s="3">
-        <v>23900</v>
+        <v>24400</v>
       </c>
       <c r="I47" s="3">
-        <v>21400</v>
+        <v>21800</v>
       </c>
       <c r="J47" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="K47" s="3">
         <v>900</v>
@@ -1991,19 +1991,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8600</v>
+        <v>8800</v>
       </c>
       <c r="E48" s="3">
-        <v>14800</v>
+        <v>15100</v>
       </c>
       <c r="F48" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="G48" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="H48" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="I48" s="3">
         <v>2500</v>
@@ -2027,22 +2027,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="E49" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="F49" s="3">
-        <v>8900</v>
+        <v>9100</v>
       </c>
       <c r="G49" s="3">
-        <v>51300</v>
+        <v>52400</v>
       </c>
       <c r="H49" s="3">
-        <v>55100</v>
+        <v>56300</v>
       </c>
       <c r="I49" s="3">
-        <v>48000</v>
+        <v>49100</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2135,22 +2135,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="E52" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="F52" s="3">
-        <v>19700</v>
+        <v>20100</v>
       </c>
       <c r="G52" s="3">
-        <v>15900</v>
+        <v>16300</v>
       </c>
       <c r="H52" s="3">
-        <v>14100</v>
+        <v>14400</v>
       </c>
       <c r="I52" s="3">
-        <v>16000</v>
+        <v>16400</v>
       </c>
       <c r="J52" s="3">
         <v>100</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>215600</v>
+        <v>220200</v>
       </c>
       <c r="E54" s="3">
-        <v>236800</v>
+        <v>241800</v>
       </c>
       <c r="F54" s="3">
-        <v>302600</v>
+        <v>309000</v>
       </c>
       <c r="G54" s="3">
-        <v>401200</v>
+        <v>409700</v>
       </c>
       <c r="H54" s="3">
-        <v>325100</v>
+        <v>332000</v>
       </c>
       <c r="I54" s="3">
-        <v>239800</v>
+        <v>244800</v>
       </c>
       <c r="J54" s="3">
-        <v>10300</v>
+        <v>10500</v>
       </c>
       <c r="K54" s="3">
         <v>5000</v>
@@ -2347,22 +2347,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>36900</v>
+        <v>37700</v>
       </c>
       <c r="E59" s="3">
-        <v>48500</v>
+        <v>49500</v>
       </c>
       <c r="F59" s="3">
-        <v>90000</v>
+        <v>91900</v>
       </c>
       <c r="G59" s="3">
-        <v>106600</v>
+        <v>108900</v>
       </c>
       <c r="H59" s="3">
-        <v>73800</v>
+        <v>75300</v>
       </c>
       <c r="I59" s="3">
-        <v>57900</v>
+        <v>59100</v>
       </c>
       <c r="J59" s="3">
         <v>3000</v>
@@ -2383,22 +2383,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>36900</v>
+        <v>37700</v>
       </c>
       <c r="E60" s="3">
-        <v>48500</v>
+        <v>49500</v>
       </c>
       <c r="F60" s="3">
-        <v>90000</v>
+        <v>91900</v>
       </c>
       <c r="G60" s="3">
-        <v>106600</v>
+        <v>108900</v>
       </c>
       <c r="H60" s="3">
-        <v>73800</v>
+        <v>75300</v>
       </c>
       <c r="I60" s="3">
-        <v>57700</v>
+        <v>58900</v>
       </c>
       <c r="J60" s="3">
         <v>3000</v>
@@ -2455,22 +2455,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="E62" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="F62" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="G62" s="3">
-        <v>11300</v>
+        <v>11600</v>
       </c>
       <c r="H62" s="3">
-        <v>14800</v>
+        <v>15100</v>
       </c>
       <c r="I62" s="3">
-        <v>13400</v>
+        <v>13700</v>
       </c>
       <c r="J62" s="3">
         <v>200</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>40800</v>
+        <v>42600</v>
       </c>
       <c r="E66" s="3">
-        <v>55300</v>
+        <v>56500</v>
       </c>
       <c r="F66" s="3">
-        <v>98000</v>
+        <v>100100</v>
       </c>
       <c r="G66" s="3">
-        <v>123300</v>
+        <v>125900</v>
       </c>
       <c r="H66" s="3">
-        <v>95900</v>
+        <v>97900</v>
       </c>
       <c r="I66" s="3">
-        <v>73700</v>
+        <v>75200</v>
       </c>
       <c r="J66" s="3">
         <v>3300</v>
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="K70" s="3">
         <v>200</v>
@@ -2794,23 +2794,23 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>-7600</v>
       </c>
       <c r="E72" s="3">
         <v>-2700</v>
       </c>
       <c r="F72" s="3">
-        <v>22500</v>
+        <v>23000</v>
       </c>
       <c r="G72" s="3">
-        <v>101000</v>
+        <v>103200</v>
       </c>
       <c r="H72" s="3">
-        <v>55400</v>
+        <v>56600</v>
       </c>
       <c r="I72" s="3">
-        <v>23700</v>
+        <v>24200</v>
       </c>
       <c r="J72" s="3">
         <v>0</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>174900</v>
+        <v>177600</v>
       </c>
       <c r="E76" s="3">
-        <v>181400</v>
+        <v>185300</v>
       </c>
       <c r="F76" s="3">
-        <v>204600</v>
+        <v>208900</v>
       </c>
       <c r="G76" s="3">
-        <v>278000</v>
+        <v>283800</v>
       </c>
       <c r="H76" s="3">
-        <v>229300</v>
+        <v>234100</v>
       </c>
       <c r="I76" s="3">
-        <v>166100</v>
+        <v>169600</v>
       </c>
       <c r="J76" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K76" s="3">
         <v>3300</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="E81" s="3">
-        <v>-25200</v>
+        <v>-25700</v>
       </c>
       <c r="F81" s="3">
-        <v>-59200</v>
+        <v>-60500</v>
       </c>
       <c r="G81" s="3">
-        <v>62600</v>
+        <v>63900</v>
       </c>
       <c r="H81" s="3">
-        <v>31700</v>
+        <v>32400</v>
       </c>
       <c r="I81" s="3">
-        <v>23400</v>
+        <v>23900</v>
       </c>
       <c r="J81" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K81" s="3">
         <v>1400</v>
@@ -3103,20 +3103,20 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>2500</v>
       </c>
       <c r="E83" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="F83" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="G83" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="H83" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="I83" s="3">
         <v>2000</v>
@@ -3319,26 +3319,26 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>100</v>
       </c>
       <c r="E89" s="3">
-        <v>-32600</v>
+        <v>-33300</v>
       </c>
       <c r="F89" s="3">
-        <v>-10300</v>
+        <v>-10600</v>
       </c>
       <c r="G89" s="3">
-        <v>94300</v>
+        <v>96300</v>
       </c>
       <c r="H89" s="3">
-        <v>28800</v>
+        <v>29400</v>
       </c>
       <c r="I89" s="3">
-        <v>56400</v>
+        <v>57600</v>
       </c>
       <c r="J89" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="K89" s="3">
         <v>2600</v>
@@ -3371,20 +3371,20 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-300</v>
       </c>
       <c r="E91" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="G91" s="3">
-        <v>-6000</v>
+        <v>-6100</v>
       </c>
       <c r="H91" s="3">
-        <v>-8000</v>
+        <v>-8200</v>
       </c>
       <c r="I91" s="3">
         <v>-1900</v>
@@ -3479,23 +3479,23 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-5100</v>
       </c>
       <c r="E94" s="3">
-        <v>-55900</v>
+        <v>-57000</v>
       </c>
       <c r="F94" s="3">
-        <v>-6200</v>
+        <v>-6400</v>
       </c>
       <c r="G94" s="3">
-        <v>-11300</v>
+        <v>-11600</v>
       </c>
       <c r="H94" s="3">
         <v>300</v>
       </c>
       <c r="I94" s="3">
-        <v>-11500</v>
+        <v>-11700</v>
       </c>
       <c r="J94" s="3">
         <v>-900</v>
@@ -3538,10 +3538,10 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-19300</v>
+        <v>-19700</v>
       </c>
       <c r="G96" s="3">
-        <v>-17000</v>
+        <v>-17300</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3675,23 +3675,23 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>-1100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>-18600</v>
+        <v>-18900</v>
       </c>
       <c r="G100" s="3">
-        <v>-18500</v>
+        <v>-18900</v>
       </c>
       <c r="H100" s="3">
-        <v>17500</v>
+        <v>17800</v>
       </c>
       <c r="I100" s="3">
-        <v>44900</v>
+        <v>45900</v>
       </c>
       <c r="J100" s="3">
         <v>1200</v>
@@ -3711,23 +3711,23 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>-2500</v>
       </c>
       <c r="E101" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="F101" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G101" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="H101" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="I101" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
@@ -3747,26 +3747,26 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>-8600</v>
       </c>
       <c r="E102" s="3">
-        <v>-90200</v>
+        <v>-92100</v>
       </c>
       <c r="F102" s="3">
-        <v>-34400</v>
+        <v>-35100</v>
       </c>
       <c r="G102" s="3">
-        <v>61800</v>
+        <v>63100</v>
       </c>
       <c r="H102" s="3">
-        <v>50100</v>
+        <v>51100</v>
       </c>
       <c r="I102" s="3">
-        <v>92000</v>
+        <v>94000</v>
       </c>
       <c r="J102" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="K102" s="3">
         <v>700</v>

--- a/AAII_Financials/Yearly/JP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JP_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>60800</v>
+        <v>60000</v>
       </c>
       <c r="E8" s="3">
-        <v>123400</v>
+        <v>121800</v>
       </c>
       <c r="F8" s="3">
-        <v>206900</v>
+        <v>204200</v>
       </c>
       <c r="G8" s="3">
-        <v>267200</v>
+        <v>263700</v>
       </c>
       <c r="H8" s="3">
-        <v>176500</v>
+        <v>174200</v>
       </c>
       <c r="I8" s="3">
-        <v>94000</v>
+        <v>92800</v>
       </c>
       <c r="J8" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="K8" s="3">
         <v>3400</v>
@@ -757,25 +757,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>32300</v>
+        <v>31900</v>
       </c>
       <c r="E9" s="3">
-        <v>75900</v>
+        <v>74900</v>
       </c>
       <c r="F9" s="3">
-        <v>107500</v>
+        <v>106100</v>
       </c>
       <c r="G9" s="3">
-        <v>116100</v>
+        <v>114600</v>
       </c>
       <c r="H9" s="3">
-        <v>75000</v>
+        <v>74000</v>
       </c>
       <c r="I9" s="3">
-        <v>38000</v>
+        <v>37500</v>
       </c>
       <c r="J9" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K9" s="3">
         <v>600</v>
@@ -793,22 +793,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>28500</v>
+        <v>28100</v>
       </c>
       <c r="E10" s="3">
-        <v>47500</v>
+        <v>46800</v>
       </c>
       <c r="F10" s="3">
-        <v>99400</v>
+        <v>98100</v>
       </c>
       <c r="G10" s="3">
-        <v>151100</v>
+        <v>149200</v>
       </c>
       <c r="H10" s="3">
-        <v>101500</v>
+        <v>100200</v>
       </c>
       <c r="I10" s="3">
-        <v>56000</v>
+        <v>55300</v>
       </c>
       <c r="J10" s="3">
         <v>4400</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>41700</v>
+        <v>41200</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>66200</v>
+        <v>65300</v>
       </c>
       <c r="E17" s="3">
-        <v>144700</v>
+        <v>142800</v>
       </c>
       <c r="F17" s="3">
-        <v>231700</v>
+        <v>228700</v>
       </c>
       <c r="G17" s="3">
-        <v>185500</v>
+        <v>183100</v>
       </c>
       <c r="H17" s="3">
-        <v>130500</v>
+        <v>128800</v>
       </c>
       <c r="I17" s="3">
-        <v>62200</v>
+        <v>61400</v>
       </c>
       <c r="J17" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="K17" s="3">
         <v>1700</v>
@@ -1038,22 +1038,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-5400</v>
+        <v>-5300</v>
       </c>
       <c r="E18" s="3">
-        <v>-21300</v>
+        <v>-21000</v>
       </c>
       <c r="F18" s="3">
-        <v>-24900</v>
+        <v>-24500</v>
       </c>
       <c r="G18" s="3">
-        <v>81700</v>
+        <v>80600</v>
       </c>
       <c r="H18" s="3">
-        <v>46000</v>
+        <v>45400</v>
       </c>
       <c r="I18" s="3">
-        <v>31800</v>
+        <v>31400</v>
       </c>
       <c r="J18" s="3">
         <v>2800</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="F20" s="3">
         <v>1200</v>
@@ -1105,7 +1105,7 @@
         <v>2500</v>
       </c>
       <c r="I20" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="J20" s="3">
         <v>300</v>
@@ -1126,22 +1126,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="E21" s="3">
-        <v>-13800</v>
+        <v>-13600</v>
       </c>
       <c r="F21" s="3">
-        <v>-18000</v>
+        <v>-17700</v>
       </c>
       <c r="G21" s="3">
-        <v>89800</v>
+        <v>88600</v>
       </c>
       <c r="H21" s="3">
-        <v>53200</v>
+        <v>52500</v>
       </c>
       <c r="I21" s="3">
-        <v>37900</v>
+        <v>37500</v>
       </c>
       <c r="J21" s="3">
         <v>3200</v>
@@ -1201,19 +1201,19 @@
         <v>-5300</v>
       </c>
       <c r="E23" s="3">
-        <v>-17900</v>
+        <v>-17600</v>
       </c>
       <c r="F23" s="3">
-        <v>-23600</v>
+        <v>-23300</v>
       </c>
       <c r="G23" s="3">
-        <v>84700</v>
+        <v>83600</v>
       </c>
       <c r="H23" s="3">
-        <v>48500</v>
+        <v>47900</v>
       </c>
       <c r="I23" s="3">
-        <v>35900</v>
+        <v>35400</v>
       </c>
       <c r="J23" s="3">
         <v>3100</v>
@@ -1237,19 +1237,19 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>8300</v>
+        <v>8200</v>
       </c>
       <c r="F24" s="3">
-        <v>20300</v>
+        <v>20000</v>
       </c>
       <c r="G24" s="3">
-        <v>19200</v>
+        <v>18900</v>
       </c>
       <c r="H24" s="3">
-        <v>12900</v>
+        <v>12700</v>
       </c>
       <c r="I24" s="3">
-        <v>10500</v>
+        <v>10400</v>
       </c>
       <c r="J24" s="3">
         <v>900</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-5500</v>
+        <v>-5400</v>
       </c>
       <c r="E26" s="3">
-        <v>-26100</v>
+        <v>-25800</v>
       </c>
       <c r="F26" s="3">
-        <v>-43900</v>
+        <v>-43300</v>
       </c>
       <c r="G26" s="3">
-        <v>65500</v>
+        <v>64700</v>
       </c>
       <c r="H26" s="3">
-        <v>35600</v>
+        <v>35200</v>
       </c>
       <c r="I26" s="3">
-        <v>25400</v>
+        <v>25100</v>
       </c>
       <c r="J26" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="K26" s="3">
         <v>1400</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4900</v>
+        <v>-4800</v>
       </c>
       <c r="E27" s="3">
-        <v>-25700</v>
+        <v>-25400</v>
       </c>
       <c r="F27" s="3">
-        <v>-60500</v>
+        <v>-59700</v>
       </c>
       <c r="G27" s="3">
-        <v>63900</v>
+        <v>63100</v>
       </c>
       <c r="H27" s="3">
-        <v>32400</v>
+        <v>32000</v>
       </c>
       <c r="I27" s="3">
-        <v>23900</v>
+        <v>23600</v>
       </c>
       <c r="J27" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K27" s="3">
         <v>1400</v>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="F32" s="3">
         <v>-1200</v>
@@ -1537,7 +1537,7 @@
         <v>-2500</v>
       </c>
       <c r="I32" s="3">
-        <v>-4100</v>
+        <v>-4000</v>
       </c>
       <c r="J32" s="3">
         <v>-300</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-4900</v>
+        <v>-4800</v>
       </c>
       <c r="E33" s="3">
-        <v>-25700</v>
+        <v>-25400</v>
       </c>
       <c r="F33" s="3">
-        <v>-60500</v>
+        <v>-59700</v>
       </c>
       <c r="G33" s="3">
-        <v>63900</v>
+        <v>63100</v>
       </c>
       <c r="H33" s="3">
-        <v>32400</v>
+        <v>32000</v>
       </c>
       <c r="I33" s="3">
-        <v>23900</v>
+        <v>23600</v>
       </c>
       <c r="J33" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K33" s="3">
         <v>1400</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-4900</v>
+        <v>-4800</v>
       </c>
       <c r="E35" s="3">
-        <v>-25700</v>
+        <v>-25400</v>
       </c>
       <c r="F35" s="3">
-        <v>-60500</v>
+        <v>-59700</v>
       </c>
       <c r="G35" s="3">
-        <v>63900</v>
+        <v>63100</v>
       </c>
       <c r="H35" s="3">
-        <v>32400</v>
+        <v>32000</v>
       </c>
       <c r="I35" s="3">
-        <v>23900</v>
+        <v>23600</v>
       </c>
       <c r="J35" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K35" s="3">
         <v>1400</v>
@@ -1739,22 +1739,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>98400</v>
+        <v>97100</v>
       </c>
       <c r="E41" s="3">
-        <v>111000</v>
+        <v>109500</v>
       </c>
       <c r="F41" s="3">
-        <v>202600</v>
+        <v>200000</v>
       </c>
       <c r="G41" s="3">
-        <v>238300</v>
+        <v>235200</v>
       </c>
       <c r="H41" s="3">
-        <v>175200</v>
+        <v>172900</v>
       </c>
       <c r="I41" s="3">
-        <v>124100</v>
+        <v>122500</v>
       </c>
       <c r="J41" s="3">
         <v>4900</v>
@@ -1790,7 +1790,7 @@
         <v>3900</v>
       </c>
       <c r="I42" s="3">
-        <v>11600</v>
+        <v>11400</v>
       </c>
       <c r="J42" s="3">
         <v>2000</v>
@@ -1811,22 +1811,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12700</v>
+        <v>12500</v>
       </c>
       <c r="E43" s="3">
-        <v>17100</v>
+        <v>16800</v>
       </c>
       <c r="F43" s="3">
-        <v>40500</v>
+        <v>40000</v>
       </c>
       <c r="G43" s="3">
-        <v>53900</v>
+        <v>53200</v>
       </c>
       <c r="H43" s="3">
-        <v>41300</v>
+        <v>40800</v>
       </c>
       <c r="I43" s="3">
-        <v>11200</v>
+        <v>11000</v>
       </c>
       <c r="J43" s="3">
         <v>800</v>
@@ -1883,7 +1883,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="E45" s="3">
         <v>900</v>
@@ -1895,10 +1895,10 @@
         <v>1900</v>
       </c>
       <c r="H45" s="3">
-        <v>10700</v>
+        <v>10500</v>
       </c>
       <c r="I45" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="J45" s="3">
         <v>600</v>
@@ -1919,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>117700</v>
+        <v>116200</v>
       </c>
       <c r="E46" s="3">
-        <v>129000</v>
+        <v>127300</v>
       </c>
       <c r="F46" s="3">
-        <v>246800</v>
+        <v>243600</v>
       </c>
       <c r="G46" s="3">
-        <v>297700</v>
+        <v>293900</v>
       </c>
       <c r="H46" s="3">
-        <v>231100</v>
+        <v>228100</v>
       </c>
       <c r="I46" s="3">
-        <v>155100</v>
+        <v>153100</v>
       </c>
       <c r="J46" s="3">
-        <v>8400</v>
+        <v>8200</v>
       </c>
       <c r="K46" s="3">
         <v>3900</v>
@@ -1955,22 +1955,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>85600</v>
+        <v>84400</v>
       </c>
       <c r="E47" s="3">
-        <v>88200</v>
+        <v>87100</v>
       </c>
       <c r="F47" s="3">
-        <v>27300</v>
+        <v>26900</v>
       </c>
       <c r="G47" s="3">
-        <v>36300</v>
+        <v>35800</v>
       </c>
       <c r="H47" s="3">
-        <v>24400</v>
+        <v>24100</v>
       </c>
       <c r="I47" s="3">
-        <v>21800</v>
+        <v>21600</v>
       </c>
       <c r="J47" s="3">
         <v>1900</v>
@@ -1991,19 +1991,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="E48" s="3">
-        <v>15100</v>
+        <v>14900</v>
       </c>
       <c r="F48" s="3">
+        <v>5600</v>
+      </c>
+      <c r="G48" s="3">
+        <v>6900</v>
+      </c>
+      <c r="H48" s="3">
         <v>5700</v>
-      </c>
-      <c r="G48" s="3">
-        <v>7000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>5800</v>
       </c>
       <c r="I48" s="3">
         <v>2500</v>
@@ -2030,19 +2030,19 @@
         <v>5300</v>
       </c>
       <c r="E49" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="F49" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="G49" s="3">
-        <v>52400</v>
+        <v>51700</v>
       </c>
       <c r="H49" s="3">
-        <v>56300</v>
+        <v>55600</v>
       </c>
       <c r="I49" s="3">
-        <v>49100</v>
+        <v>48400</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2135,22 +2135,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="E52" s="3">
         <v>3500</v>
       </c>
       <c r="F52" s="3">
-        <v>20100</v>
+        <v>19800</v>
       </c>
       <c r="G52" s="3">
-        <v>16300</v>
+        <v>16100</v>
       </c>
       <c r="H52" s="3">
-        <v>14400</v>
+        <v>14200</v>
       </c>
       <c r="I52" s="3">
-        <v>16400</v>
+        <v>16100</v>
       </c>
       <c r="J52" s="3">
         <v>100</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>220200</v>
+        <v>217300</v>
       </c>
       <c r="E54" s="3">
-        <v>241800</v>
+        <v>238600</v>
       </c>
       <c r="F54" s="3">
-        <v>309000</v>
+        <v>305000</v>
       </c>
       <c r="G54" s="3">
-        <v>409700</v>
+        <v>404400</v>
       </c>
       <c r="H54" s="3">
-        <v>332000</v>
+        <v>327700</v>
       </c>
       <c r="I54" s="3">
-        <v>244800</v>
+        <v>241700</v>
       </c>
       <c r="J54" s="3">
-        <v>10500</v>
+        <v>10400</v>
       </c>
       <c r="K54" s="3">
         <v>5000</v>
@@ -2347,22 +2347,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>37700</v>
+        <v>37200</v>
       </c>
       <c r="E59" s="3">
-        <v>49500</v>
+        <v>48800</v>
       </c>
       <c r="F59" s="3">
-        <v>91900</v>
+        <v>90700</v>
       </c>
       <c r="G59" s="3">
-        <v>108900</v>
+        <v>107500</v>
       </c>
       <c r="H59" s="3">
-        <v>75300</v>
+        <v>74400</v>
       </c>
       <c r="I59" s="3">
-        <v>59100</v>
+        <v>58300</v>
       </c>
       <c r="J59" s="3">
         <v>3000</v>
@@ -2383,22 +2383,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>37700</v>
+        <v>37200</v>
       </c>
       <c r="E60" s="3">
-        <v>49500</v>
+        <v>48800</v>
       </c>
       <c r="F60" s="3">
-        <v>91900</v>
+        <v>90700</v>
       </c>
       <c r="G60" s="3">
-        <v>108900</v>
+        <v>107500</v>
       </c>
       <c r="H60" s="3">
-        <v>75300</v>
+        <v>74400</v>
       </c>
       <c r="I60" s="3">
-        <v>58900</v>
+        <v>58100</v>
       </c>
       <c r="J60" s="3">
         <v>3000</v>
@@ -2455,22 +2455,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="E62" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="F62" s="3">
         <v>3800</v>
       </c>
       <c r="G62" s="3">
-        <v>11600</v>
+        <v>11400</v>
       </c>
       <c r="H62" s="3">
-        <v>15100</v>
+        <v>14900</v>
       </c>
       <c r="I62" s="3">
-        <v>13700</v>
+        <v>13500</v>
       </c>
       <c r="J62" s="3">
         <v>200</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>42600</v>
+        <v>42000</v>
       </c>
       <c r="E66" s="3">
-        <v>56500</v>
+        <v>55800</v>
       </c>
       <c r="F66" s="3">
-        <v>100100</v>
+        <v>98800</v>
       </c>
       <c r="G66" s="3">
-        <v>125900</v>
+        <v>124200</v>
       </c>
       <c r="H66" s="3">
-        <v>97900</v>
+        <v>96600</v>
       </c>
       <c r="I66" s="3">
-        <v>75200</v>
+        <v>74300</v>
       </c>
       <c r="J66" s="3">
         <v>3300</v>
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="K70" s="3">
         <v>200</v>
@@ -2795,22 +2795,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-7600</v>
+        <v>-7500</v>
       </c>
       <c r="E72" s="3">
         <v>-2700</v>
       </c>
       <c r="F72" s="3">
-        <v>23000</v>
+        <v>22700</v>
       </c>
       <c r="G72" s="3">
-        <v>103200</v>
+        <v>101800</v>
       </c>
       <c r="H72" s="3">
-        <v>56600</v>
+        <v>55900</v>
       </c>
       <c r="I72" s="3">
-        <v>24200</v>
+        <v>23900</v>
       </c>
       <c r="J72" s="3">
         <v>0</v>
@@ -2939,22 +2939,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>177600</v>
+        <v>175300</v>
       </c>
       <c r="E76" s="3">
-        <v>185300</v>
+        <v>182900</v>
       </c>
       <c r="F76" s="3">
-        <v>208900</v>
+        <v>206200</v>
       </c>
       <c r="G76" s="3">
-        <v>283800</v>
+        <v>280100</v>
       </c>
       <c r="H76" s="3">
-        <v>234100</v>
+        <v>231100</v>
       </c>
       <c r="I76" s="3">
-        <v>169600</v>
+        <v>167400</v>
       </c>
       <c r="J76" s="3">
         <v>1200</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-4900</v>
+        <v>-4800</v>
       </c>
       <c r="E81" s="3">
-        <v>-25700</v>
+        <v>-25400</v>
       </c>
       <c r="F81" s="3">
-        <v>-60500</v>
+        <v>-59700</v>
       </c>
       <c r="G81" s="3">
-        <v>63900</v>
+        <v>63100</v>
       </c>
       <c r="H81" s="3">
-        <v>32400</v>
+        <v>32000</v>
       </c>
       <c r="I81" s="3">
-        <v>23900</v>
+        <v>23600</v>
       </c>
       <c r="J81" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K81" s="3">
         <v>1400</v>
@@ -3107,13 +3107,13 @@
         <v>2500</v>
       </c>
       <c r="E83" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="F83" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="G83" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="H83" s="3">
         <v>4600</v>
@@ -3323,19 +3323,19 @@
         <v>100</v>
       </c>
       <c r="E89" s="3">
-        <v>-33300</v>
+        <v>-32800</v>
       </c>
       <c r="F89" s="3">
-        <v>-10600</v>
+        <v>-10400</v>
       </c>
       <c r="G89" s="3">
-        <v>96300</v>
+        <v>95100</v>
       </c>
       <c r="H89" s="3">
-        <v>29400</v>
+        <v>29000</v>
       </c>
       <c r="I89" s="3">
-        <v>57600</v>
+        <v>56800</v>
       </c>
       <c r="J89" s="3">
         <v>3800</v>
@@ -3375,16 +3375,16 @@
         <v>-300</v>
       </c>
       <c r="E91" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="F91" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="G91" s="3">
-        <v>-6100</v>
+        <v>-6000</v>
       </c>
       <c r="H91" s="3">
-        <v>-8200</v>
+        <v>-8100</v>
       </c>
       <c r="I91" s="3">
         <v>-1900</v>
@@ -3480,22 +3480,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5100</v>
+        <v>-5000</v>
       </c>
       <c r="E94" s="3">
-        <v>-57000</v>
+        <v>-56300</v>
       </c>
       <c r="F94" s="3">
-        <v>-6400</v>
+        <v>-6300</v>
       </c>
       <c r="G94" s="3">
-        <v>-11600</v>
+        <v>-11400</v>
       </c>
       <c r="H94" s="3">
         <v>300</v>
       </c>
       <c r="I94" s="3">
-        <v>-11700</v>
+        <v>-11600</v>
       </c>
       <c r="J94" s="3">
         <v>-900</v>
@@ -3538,10 +3538,10 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-19700</v>
+        <v>-19500</v>
       </c>
       <c r="G96" s="3">
-        <v>-17300</v>
+        <v>-17100</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3682,16 +3682,16 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>-18900</v>
+        <v>-18700</v>
       </c>
       <c r="G100" s="3">
-        <v>-18900</v>
+        <v>-18700</v>
       </c>
       <c r="H100" s="3">
-        <v>17800</v>
+        <v>17600</v>
       </c>
       <c r="I100" s="3">
-        <v>45900</v>
+        <v>45300</v>
       </c>
       <c r="J100" s="3">
         <v>1200</v>
@@ -3718,10 +3718,10 @@
         <v>-1800</v>
       </c>
       <c r="F101" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G101" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="H101" s="3">
         <v>3600</v>
@@ -3748,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-8600</v>
+        <v>-8500</v>
       </c>
       <c r="E102" s="3">
-        <v>-92100</v>
+        <v>-90900</v>
       </c>
       <c r="F102" s="3">
-        <v>-35100</v>
+        <v>-34700</v>
       </c>
       <c r="G102" s="3">
-        <v>63100</v>
+        <v>62300</v>
       </c>
       <c r="H102" s="3">
-        <v>51100</v>
+        <v>50500</v>
       </c>
       <c r="I102" s="3">
-        <v>94000</v>
+        <v>92800</v>
       </c>
       <c r="J102" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="K102" s="3">
         <v>700</v>

--- a/AAII_Financials/Yearly/JP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JP_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>60000</v>
+        <v>61000</v>
       </c>
       <c r="E8" s="3">
-        <v>121800</v>
+        <v>123800</v>
       </c>
       <c r="F8" s="3">
-        <v>204200</v>
+        <v>207600</v>
       </c>
       <c r="G8" s="3">
-        <v>263700</v>
+        <v>268100</v>
       </c>
       <c r="H8" s="3">
-        <v>174200</v>
+        <v>177100</v>
       </c>
       <c r="I8" s="3">
-        <v>92800</v>
+        <v>94300</v>
       </c>
       <c r="J8" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="K8" s="3">
         <v>3400</v>
@@ -757,25 +757,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>31900</v>
+        <v>32500</v>
       </c>
       <c r="E9" s="3">
-        <v>74900</v>
+        <v>76200</v>
       </c>
       <c r="F9" s="3">
-        <v>106100</v>
+        <v>107900</v>
       </c>
       <c r="G9" s="3">
-        <v>114600</v>
+        <v>116500</v>
       </c>
       <c r="H9" s="3">
-        <v>74000</v>
+        <v>75300</v>
       </c>
       <c r="I9" s="3">
-        <v>37500</v>
+        <v>38100</v>
       </c>
       <c r="J9" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K9" s="3">
         <v>600</v>
@@ -793,22 +793,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>28100</v>
+        <v>28600</v>
       </c>
       <c r="E10" s="3">
-        <v>46800</v>
+        <v>47600</v>
       </c>
       <c r="F10" s="3">
-        <v>98100</v>
+        <v>99800</v>
       </c>
       <c r="G10" s="3">
-        <v>149200</v>
+        <v>151700</v>
       </c>
       <c r="H10" s="3">
-        <v>100200</v>
+        <v>101900</v>
       </c>
       <c r="I10" s="3">
-        <v>55300</v>
+        <v>56200</v>
       </c>
       <c r="J10" s="3">
         <v>4400</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>41200</v>
+        <v>41900</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>65300</v>
+        <v>66400</v>
       </c>
       <c r="E17" s="3">
-        <v>142800</v>
+        <v>145200</v>
       </c>
       <c r="F17" s="3">
-        <v>228700</v>
+        <v>232600</v>
       </c>
       <c r="G17" s="3">
-        <v>183100</v>
+        <v>186200</v>
       </c>
       <c r="H17" s="3">
-        <v>128800</v>
+        <v>131000</v>
       </c>
       <c r="I17" s="3">
-        <v>61400</v>
+        <v>62400</v>
       </c>
       <c r="J17" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="K17" s="3">
         <v>1700</v>
@@ -1038,22 +1038,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="E18" s="3">
-        <v>-21000</v>
+        <v>-21400</v>
       </c>
       <c r="F18" s="3">
-        <v>-24500</v>
+        <v>-25000</v>
       </c>
       <c r="G18" s="3">
-        <v>80600</v>
+        <v>82000</v>
       </c>
       <c r="H18" s="3">
-        <v>45400</v>
+        <v>46200</v>
       </c>
       <c r="I18" s="3">
-        <v>31400</v>
+        <v>31900</v>
       </c>
       <c r="J18" s="3">
         <v>2800</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="F20" s="3">
         <v>1200</v>
@@ -1102,13 +1102,13 @@
         <v>3000</v>
       </c>
       <c r="H20" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="I20" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="J20" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K20" s="3">
         <v>200</v>
@@ -1126,22 +1126,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="E21" s="3">
-        <v>-13600</v>
+        <v>-13800</v>
       </c>
       <c r="F21" s="3">
-        <v>-17700</v>
+        <v>-18000</v>
       </c>
       <c r="G21" s="3">
-        <v>88600</v>
+        <v>90100</v>
       </c>
       <c r="H21" s="3">
-        <v>52500</v>
+        <v>53400</v>
       </c>
       <c r="I21" s="3">
-        <v>37500</v>
+        <v>38100</v>
       </c>
       <c r="J21" s="3">
         <v>3200</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="E23" s="3">
-        <v>-17600</v>
+        <v>-17900</v>
       </c>
       <c r="F23" s="3">
-        <v>-23300</v>
+        <v>-23700</v>
       </c>
       <c r="G23" s="3">
-        <v>83600</v>
+        <v>85000</v>
       </c>
       <c r="H23" s="3">
-        <v>47900</v>
+        <v>48700</v>
       </c>
       <c r="I23" s="3">
-        <v>35400</v>
+        <v>36000</v>
       </c>
       <c r="J23" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="K23" s="3">
         <v>1900</v>
@@ -1237,19 +1237,19 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="F24" s="3">
-        <v>20000</v>
+        <v>20300</v>
       </c>
       <c r="G24" s="3">
-        <v>18900</v>
+        <v>19300</v>
       </c>
       <c r="H24" s="3">
-        <v>12700</v>
+        <v>12900</v>
       </c>
       <c r="I24" s="3">
-        <v>10400</v>
+        <v>10500</v>
       </c>
       <c r="J24" s="3">
         <v>900</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-5400</v>
+        <v>-5500</v>
       </c>
       <c r="E26" s="3">
-        <v>-25800</v>
+        <v>-26200</v>
       </c>
       <c r="F26" s="3">
-        <v>-43300</v>
+        <v>-44000</v>
       </c>
       <c r="G26" s="3">
-        <v>64700</v>
+        <v>65700</v>
       </c>
       <c r="H26" s="3">
-        <v>35200</v>
+        <v>35800</v>
       </c>
       <c r="I26" s="3">
-        <v>25100</v>
+        <v>25500</v>
       </c>
       <c r="J26" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="K26" s="3">
         <v>1400</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="E27" s="3">
-        <v>-25400</v>
+        <v>-25800</v>
       </c>
       <c r="F27" s="3">
-        <v>-59700</v>
+        <v>-60700</v>
       </c>
       <c r="G27" s="3">
-        <v>63100</v>
+        <v>64100</v>
       </c>
       <c r="H27" s="3">
-        <v>32000</v>
+        <v>32500</v>
       </c>
       <c r="I27" s="3">
-        <v>23600</v>
+        <v>24000</v>
       </c>
       <c r="J27" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K27" s="3">
         <v>1400</v>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="F32" s="3">
         <v>-1200</v>
@@ -1534,13 +1534,13 @@
         <v>-3000</v>
       </c>
       <c r="H32" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="I32" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="J32" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="K32" s="3">
         <v>-200</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="E33" s="3">
-        <v>-25400</v>
+        <v>-25800</v>
       </c>
       <c r="F33" s="3">
-        <v>-59700</v>
+        <v>-60700</v>
       </c>
       <c r="G33" s="3">
-        <v>63100</v>
+        <v>64100</v>
       </c>
       <c r="H33" s="3">
-        <v>32000</v>
+        <v>32500</v>
       </c>
       <c r="I33" s="3">
-        <v>23600</v>
+        <v>24000</v>
       </c>
       <c r="J33" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K33" s="3">
         <v>1400</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="E35" s="3">
-        <v>-25400</v>
+        <v>-25800</v>
       </c>
       <c r="F35" s="3">
-        <v>-59700</v>
+        <v>-60700</v>
       </c>
       <c r="G35" s="3">
-        <v>63100</v>
+        <v>64100</v>
       </c>
       <c r="H35" s="3">
-        <v>32000</v>
+        <v>32500</v>
       </c>
       <c r="I35" s="3">
-        <v>23600</v>
+        <v>24000</v>
       </c>
       <c r="J35" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K35" s="3">
         <v>1400</v>
@@ -1739,22 +1739,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>97100</v>
+        <v>98700</v>
       </c>
       <c r="E41" s="3">
-        <v>109500</v>
+        <v>111300</v>
       </c>
       <c r="F41" s="3">
-        <v>200000</v>
+        <v>203300</v>
       </c>
       <c r="G41" s="3">
-        <v>235200</v>
+        <v>239200</v>
       </c>
       <c r="H41" s="3">
-        <v>172900</v>
+        <v>175800</v>
       </c>
       <c r="I41" s="3">
-        <v>122500</v>
+        <v>124500</v>
       </c>
       <c r="J41" s="3">
         <v>4900</v>
@@ -1790,7 +1790,7 @@
         <v>3900</v>
       </c>
       <c r="I42" s="3">
-        <v>11400</v>
+        <v>11600</v>
       </c>
       <c r="J42" s="3">
         <v>2000</v>
@@ -1811,22 +1811,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12500</v>
+        <v>12800</v>
       </c>
       <c r="E43" s="3">
-        <v>16800</v>
+        <v>17100</v>
       </c>
       <c r="F43" s="3">
-        <v>40000</v>
+        <v>40600</v>
       </c>
       <c r="G43" s="3">
-        <v>53200</v>
+        <v>54100</v>
       </c>
       <c r="H43" s="3">
-        <v>40800</v>
+        <v>41400</v>
       </c>
       <c r="I43" s="3">
-        <v>11000</v>
+        <v>11200</v>
       </c>
       <c r="J43" s="3">
         <v>800</v>
@@ -1883,10 +1883,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="E45" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F45" s="3">
         <v>3000</v>
@@ -1895,10 +1895,10 @@
         <v>1900</v>
       </c>
       <c r="H45" s="3">
-        <v>10500</v>
+        <v>10700</v>
       </c>
       <c r="I45" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="J45" s="3">
         <v>600</v>
@@ -1919,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>116200</v>
+        <v>118200</v>
       </c>
       <c r="E46" s="3">
-        <v>127300</v>
+        <v>129400</v>
       </c>
       <c r="F46" s="3">
-        <v>243600</v>
+        <v>247700</v>
       </c>
       <c r="G46" s="3">
-        <v>293900</v>
+        <v>298800</v>
       </c>
       <c r="H46" s="3">
-        <v>228100</v>
+        <v>231900</v>
       </c>
       <c r="I46" s="3">
-        <v>153100</v>
+        <v>155600</v>
       </c>
       <c r="J46" s="3">
-        <v>8200</v>
+        <v>8400</v>
       </c>
       <c r="K46" s="3">
         <v>3900</v>
@@ -1955,22 +1955,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>84400</v>
+        <v>85900</v>
       </c>
       <c r="E47" s="3">
-        <v>87100</v>
+        <v>88600</v>
       </c>
       <c r="F47" s="3">
-        <v>26900</v>
+        <v>27400</v>
       </c>
       <c r="G47" s="3">
-        <v>35800</v>
+        <v>36400</v>
       </c>
       <c r="H47" s="3">
-        <v>24100</v>
+        <v>24500</v>
       </c>
       <c r="I47" s="3">
-        <v>21600</v>
+        <v>21900</v>
       </c>
       <c r="J47" s="3">
         <v>1900</v>
@@ -1991,19 +1991,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8700</v>
+        <v>8800</v>
       </c>
       <c r="E48" s="3">
-        <v>14900</v>
+        <v>15200</v>
       </c>
       <c r="F48" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="G48" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="H48" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="I48" s="3">
         <v>2500</v>
@@ -2027,22 +2027,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="E49" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="F49" s="3">
-        <v>9000</v>
+        <v>9100</v>
       </c>
       <c r="G49" s="3">
-        <v>51700</v>
+        <v>52600</v>
       </c>
       <c r="H49" s="3">
-        <v>55600</v>
+        <v>56500</v>
       </c>
       <c r="I49" s="3">
-        <v>48400</v>
+        <v>49200</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2135,22 +2135,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="E52" s="3">
         <v>3500</v>
       </c>
       <c r="F52" s="3">
-        <v>19800</v>
+        <v>20200</v>
       </c>
       <c r="G52" s="3">
-        <v>16100</v>
+        <v>16300</v>
       </c>
       <c r="H52" s="3">
-        <v>14200</v>
+        <v>14500</v>
       </c>
       <c r="I52" s="3">
-        <v>16100</v>
+        <v>16400</v>
       </c>
       <c r="J52" s="3">
         <v>100</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>217300</v>
+        <v>221000</v>
       </c>
       <c r="E54" s="3">
-        <v>238600</v>
+        <v>242600</v>
       </c>
       <c r="F54" s="3">
-        <v>305000</v>
+        <v>310100</v>
       </c>
       <c r="G54" s="3">
-        <v>404400</v>
+        <v>411100</v>
       </c>
       <c r="H54" s="3">
-        <v>327700</v>
+        <v>333200</v>
       </c>
       <c r="I54" s="3">
-        <v>241700</v>
+        <v>245700</v>
       </c>
       <c r="J54" s="3">
-        <v>10400</v>
+        <v>10500</v>
       </c>
       <c r="K54" s="3">
         <v>5000</v>
@@ -2347,22 +2347,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>37200</v>
+        <v>37800</v>
       </c>
       <c r="E59" s="3">
-        <v>48800</v>
+        <v>49700</v>
       </c>
       <c r="F59" s="3">
-        <v>90700</v>
+        <v>92200</v>
       </c>
       <c r="G59" s="3">
-        <v>107500</v>
+        <v>109300</v>
       </c>
       <c r="H59" s="3">
-        <v>74400</v>
+        <v>75600</v>
       </c>
       <c r="I59" s="3">
-        <v>58300</v>
+        <v>59300</v>
       </c>
       <c r="J59" s="3">
         <v>3000</v>
@@ -2383,22 +2383,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>37200</v>
+        <v>37800</v>
       </c>
       <c r="E60" s="3">
-        <v>48800</v>
+        <v>49700</v>
       </c>
       <c r="F60" s="3">
-        <v>90700</v>
+        <v>92200</v>
       </c>
       <c r="G60" s="3">
-        <v>107500</v>
+        <v>109300</v>
       </c>
       <c r="H60" s="3">
-        <v>74400</v>
+        <v>75600</v>
       </c>
       <c r="I60" s="3">
-        <v>58100</v>
+        <v>59100</v>
       </c>
       <c r="J60" s="3">
         <v>3000</v>
@@ -2455,22 +2455,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="E62" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="F62" s="3">
         <v>3800</v>
       </c>
       <c r="G62" s="3">
-        <v>11400</v>
+        <v>11600</v>
       </c>
       <c r="H62" s="3">
-        <v>14900</v>
+        <v>15200</v>
       </c>
       <c r="I62" s="3">
-        <v>13500</v>
+        <v>13700</v>
       </c>
       <c r="J62" s="3">
         <v>200</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>42000</v>
+        <v>42700</v>
       </c>
       <c r="E66" s="3">
-        <v>55800</v>
+        <v>56700</v>
       </c>
       <c r="F66" s="3">
-        <v>98800</v>
+        <v>100400</v>
       </c>
       <c r="G66" s="3">
-        <v>124200</v>
+        <v>126300</v>
       </c>
       <c r="H66" s="3">
-        <v>96600</v>
+        <v>98200</v>
       </c>
       <c r="I66" s="3">
-        <v>74300</v>
+        <v>75500</v>
       </c>
       <c r="J66" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="K66" s="3">
         <v>1400</v>
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="K70" s="3">
         <v>200</v>
@@ -2795,22 +2795,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-7500</v>
+        <v>-7700</v>
       </c>
       <c r="E72" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="F72" s="3">
-        <v>22700</v>
+        <v>23000</v>
       </c>
       <c r="G72" s="3">
-        <v>101800</v>
+        <v>103500</v>
       </c>
       <c r="H72" s="3">
-        <v>55900</v>
+        <v>56800</v>
       </c>
       <c r="I72" s="3">
-        <v>23900</v>
+        <v>24300</v>
       </c>
       <c r="J72" s="3">
         <v>0</v>
@@ -2939,22 +2939,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>175300</v>
+        <v>178200</v>
       </c>
       <c r="E76" s="3">
-        <v>182900</v>
+        <v>185900</v>
       </c>
       <c r="F76" s="3">
-        <v>206200</v>
+        <v>209600</v>
       </c>
       <c r="G76" s="3">
-        <v>280100</v>
+        <v>284800</v>
       </c>
       <c r="H76" s="3">
-        <v>231100</v>
+        <v>234900</v>
       </c>
       <c r="I76" s="3">
-        <v>167400</v>
+        <v>170200</v>
       </c>
       <c r="J76" s="3">
         <v>1200</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="E81" s="3">
-        <v>-25400</v>
+        <v>-25800</v>
       </c>
       <c r="F81" s="3">
-        <v>-59700</v>
+        <v>-60700</v>
       </c>
       <c r="G81" s="3">
-        <v>63100</v>
+        <v>64100</v>
       </c>
       <c r="H81" s="3">
-        <v>32000</v>
+        <v>32500</v>
       </c>
       <c r="I81" s="3">
-        <v>23600</v>
+        <v>24000</v>
       </c>
       <c r="J81" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K81" s="3">
         <v>1400</v>
@@ -3104,16 +3104,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="E83" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="F83" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="G83" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="H83" s="3">
         <v>4600</v>
@@ -3323,19 +3323,19 @@
         <v>100</v>
       </c>
       <c r="E89" s="3">
-        <v>-32800</v>
+        <v>-33400</v>
       </c>
       <c r="F89" s="3">
-        <v>-10400</v>
+        <v>-10600</v>
       </c>
       <c r="G89" s="3">
-        <v>95100</v>
+        <v>96700</v>
       </c>
       <c r="H89" s="3">
-        <v>29000</v>
+        <v>29500</v>
       </c>
       <c r="I89" s="3">
-        <v>56800</v>
+        <v>57800</v>
       </c>
       <c r="J89" s="3">
         <v>3800</v>
@@ -3375,16 +3375,16 @@
         <v>-300</v>
       </c>
       <c r="E91" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="G91" s="3">
-        <v>-6000</v>
+        <v>-6100</v>
       </c>
       <c r="H91" s="3">
-        <v>-8100</v>
+        <v>-8200</v>
       </c>
       <c r="I91" s="3">
         <v>-1900</v>
@@ -3480,22 +3480,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5000</v>
+        <v>-5100</v>
       </c>
       <c r="E94" s="3">
-        <v>-56300</v>
+        <v>-57200</v>
       </c>
       <c r="F94" s="3">
-        <v>-6300</v>
+        <v>-6400</v>
       </c>
       <c r="G94" s="3">
-        <v>-11400</v>
+        <v>-11600</v>
       </c>
       <c r="H94" s="3">
         <v>300</v>
       </c>
       <c r="I94" s="3">
-        <v>-11600</v>
+        <v>-11800</v>
       </c>
       <c r="J94" s="3">
         <v>-900</v>
@@ -3538,10 +3538,10 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-19500</v>
+        <v>-19800</v>
       </c>
       <c r="G96" s="3">
-        <v>-17100</v>
+        <v>-17400</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3682,16 +3682,16 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>-18700</v>
+        <v>-19000</v>
       </c>
       <c r="G100" s="3">
-        <v>-18700</v>
+        <v>-19000</v>
       </c>
       <c r="H100" s="3">
-        <v>17600</v>
+        <v>17900</v>
       </c>
       <c r="I100" s="3">
-        <v>45300</v>
+        <v>46000</v>
       </c>
       <c r="J100" s="3">
         <v>1200</v>
@@ -3718,10 +3718,10 @@
         <v>-1800</v>
       </c>
       <c r="F101" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G101" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="H101" s="3">
         <v>3600</v>
@@ -3748,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-8500</v>
+        <v>-8600</v>
       </c>
       <c r="E102" s="3">
-        <v>-90900</v>
+        <v>-92400</v>
       </c>
       <c r="F102" s="3">
-        <v>-34700</v>
+        <v>-35300</v>
       </c>
       <c r="G102" s="3">
-        <v>62300</v>
+        <v>63300</v>
       </c>
       <c r="H102" s="3">
-        <v>50500</v>
+        <v>51300</v>
       </c>
       <c r="I102" s="3">
-        <v>92800</v>
+        <v>94300</v>
       </c>
       <c r="J102" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="K102" s="3">
         <v>700</v>

--- a/AAII_Financials/Yearly/JP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JP_YR_FIN.xlsx
@@ -721,22 +721,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>61000</v>
+        <v>61500</v>
       </c>
       <c r="E8" s="3">
-        <v>123800</v>
+        <v>124800</v>
       </c>
       <c r="F8" s="3">
-        <v>207600</v>
+        <v>209200</v>
       </c>
       <c r="G8" s="3">
-        <v>268100</v>
+        <v>270200</v>
       </c>
       <c r="H8" s="3">
-        <v>177100</v>
+        <v>178500</v>
       </c>
       <c r="I8" s="3">
-        <v>94300</v>
+        <v>95000</v>
       </c>
       <c r="J8" s="3">
         <v>6100</v>
@@ -757,22 +757,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>32500</v>
+        <v>32700</v>
       </c>
       <c r="E9" s="3">
-        <v>76200</v>
+        <v>76800</v>
       </c>
       <c r="F9" s="3">
-        <v>107900</v>
+        <v>108700</v>
       </c>
       <c r="G9" s="3">
-        <v>116500</v>
+        <v>117400</v>
       </c>
       <c r="H9" s="3">
-        <v>75300</v>
+        <v>75800</v>
       </c>
       <c r="I9" s="3">
-        <v>38100</v>
+        <v>38400</v>
       </c>
       <c r="J9" s="3">
         <v>1700</v>
@@ -793,25 +793,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>28600</v>
+        <v>28800</v>
       </c>
       <c r="E10" s="3">
-        <v>47600</v>
+        <v>48000</v>
       </c>
       <c r="F10" s="3">
-        <v>99800</v>
+        <v>100500</v>
       </c>
       <c r="G10" s="3">
-        <v>151700</v>
+        <v>152800</v>
       </c>
       <c r="H10" s="3">
-        <v>101900</v>
+        <v>102700</v>
       </c>
       <c r="I10" s="3">
-        <v>56200</v>
+        <v>56600</v>
       </c>
       <c r="J10" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="K10" s="3">
         <v>2800</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>41900</v>
+        <v>42200</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -1002,22 +1002,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>66400</v>
+        <v>66900</v>
       </c>
       <c r="E17" s="3">
-        <v>145200</v>
+        <v>146300</v>
       </c>
       <c r="F17" s="3">
-        <v>232600</v>
+        <v>234300</v>
       </c>
       <c r="G17" s="3">
-        <v>186200</v>
+        <v>187600</v>
       </c>
       <c r="H17" s="3">
-        <v>131000</v>
+        <v>132000</v>
       </c>
       <c r="I17" s="3">
-        <v>62400</v>
+        <v>62900</v>
       </c>
       <c r="J17" s="3">
         <v>3300</v>
@@ -1041,19 +1041,19 @@
         <v>-5400</v>
       </c>
       <c r="E18" s="3">
-        <v>-21400</v>
+        <v>-21600</v>
       </c>
       <c r="F18" s="3">
-        <v>-25000</v>
+        <v>-25100</v>
       </c>
       <c r="G18" s="3">
-        <v>82000</v>
+        <v>82600</v>
       </c>
       <c r="H18" s="3">
-        <v>46200</v>
+        <v>46500</v>
       </c>
       <c r="I18" s="3">
-        <v>31900</v>
+        <v>32200</v>
       </c>
       <c r="J18" s="3">
         <v>2800</v>
@@ -1096,10 +1096,10 @@
         <v>3500</v>
       </c>
       <c r="F20" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G20" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="H20" s="3">
         <v>2600</v>
@@ -1129,19 +1129,19 @@
         <v>-2800</v>
       </c>
       <c r="E21" s="3">
-        <v>-13800</v>
+        <v>-13900</v>
       </c>
       <c r="F21" s="3">
-        <v>-18000</v>
+        <v>-18100</v>
       </c>
       <c r="G21" s="3">
-        <v>90100</v>
+        <v>90800</v>
       </c>
       <c r="H21" s="3">
-        <v>53400</v>
+        <v>53800</v>
       </c>
       <c r="I21" s="3">
-        <v>38100</v>
+        <v>38400</v>
       </c>
       <c r="J21" s="3">
         <v>3200</v>
@@ -1201,19 +1201,19 @@
         <v>-5400</v>
       </c>
       <c r="E23" s="3">
-        <v>-17900</v>
+        <v>-18100</v>
       </c>
       <c r="F23" s="3">
-        <v>-23700</v>
+        <v>-23900</v>
       </c>
       <c r="G23" s="3">
-        <v>85000</v>
+        <v>85700</v>
       </c>
       <c r="H23" s="3">
-        <v>48700</v>
+        <v>49100</v>
       </c>
       <c r="I23" s="3">
-        <v>36000</v>
+        <v>36300</v>
       </c>
       <c r="J23" s="3">
         <v>3200</v>
@@ -1237,19 +1237,19 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>8300</v>
+        <v>8400</v>
       </c>
       <c r="F24" s="3">
-        <v>20300</v>
+        <v>20500</v>
       </c>
       <c r="G24" s="3">
-        <v>19300</v>
+        <v>19400</v>
       </c>
       <c r="H24" s="3">
-        <v>12900</v>
+        <v>13000</v>
       </c>
       <c r="I24" s="3">
-        <v>10500</v>
+        <v>10600</v>
       </c>
       <c r="J24" s="3">
         <v>900</v>
@@ -1309,19 +1309,19 @@
         <v>-5500</v>
       </c>
       <c r="E26" s="3">
-        <v>-26200</v>
+        <v>-26400</v>
       </c>
       <c r="F26" s="3">
-        <v>-44000</v>
+        <v>-44400</v>
       </c>
       <c r="G26" s="3">
-        <v>65700</v>
+        <v>66200</v>
       </c>
       <c r="H26" s="3">
-        <v>35800</v>
+        <v>36000</v>
       </c>
       <c r="I26" s="3">
-        <v>25500</v>
+        <v>25700</v>
       </c>
       <c r="J26" s="3">
         <v>2300</v>
@@ -1345,19 +1345,19 @@
         <v>-4900</v>
       </c>
       <c r="E27" s="3">
-        <v>-25800</v>
+        <v>-26000</v>
       </c>
       <c r="F27" s="3">
-        <v>-60700</v>
+        <v>-61200</v>
       </c>
       <c r="G27" s="3">
-        <v>64100</v>
+        <v>64600</v>
       </c>
       <c r="H27" s="3">
-        <v>32500</v>
+        <v>32700</v>
       </c>
       <c r="I27" s="3">
-        <v>24000</v>
+        <v>24200</v>
       </c>
       <c r="J27" s="3">
         <v>1100</v>
@@ -1528,10 +1528,10 @@
         <v>-3500</v>
       </c>
       <c r="F32" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="G32" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="H32" s="3">
         <v>-2600</v>
@@ -1561,19 +1561,19 @@
         <v>-4900</v>
       </c>
       <c r="E33" s="3">
-        <v>-25800</v>
+        <v>-26000</v>
       </c>
       <c r="F33" s="3">
-        <v>-60700</v>
+        <v>-61200</v>
       </c>
       <c r="G33" s="3">
-        <v>64100</v>
+        <v>64600</v>
       </c>
       <c r="H33" s="3">
-        <v>32500</v>
+        <v>32700</v>
       </c>
       <c r="I33" s="3">
-        <v>24000</v>
+        <v>24200</v>
       </c>
       <c r="J33" s="3">
         <v>1100</v>
@@ -1633,19 +1633,19 @@
         <v>-4900</v>
       </c>
       <c r="E35" s="3">
-        <v>-25800</v>
+        <v>-26000</v>
       </c>
       <c r="F35" s="3">
-        <v>-60700</v>
+        <v>-61200</v>
       </c>
       <c r="G35" s="3">
-        <v>64100</v>
+        <v>64600</v>
       </c>
       <c r="H35" s="3">
-        <v>32500</v>
+        <v>32700</v>
       </c>
       <c r="I35" s="3">
-        <v>24000</v>
+        <v>24200</v>
       </c>
       <c r="J35" s="3">
         <v>1100</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>98700</v>
+        <v>99500</v>
       </c>
       <c r="E41" s="3">
-        <v>111300</v>
+        <v>112200</v>
       </c>
       <c r="F41" s="3">
-        <v>203300</v>
+        <v>204900</v>
       </c>
       <c r="G41" s="3">
-        <v>239200</v>
+        <v>241000</v>
       </c>
       <c r="H41" s="3">
-        <v>175800</v>
+        <v>177200</v>
       </c>
       <c r="I41" s="3">
-        <v>124500</v>
+        <v>125500</v>
       </c>
       <c r="J41" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="K41" s="3">
         <v>800</v>
@@ -1784,13 +1784,13 @@
         <v>700</v>
       </c>
       <c r="G42" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="H42" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="I42" s="3">
-        <v>11600</v>
+        <v>11700</v>
       </c>
       <c r="J42" s="3">
         <v>2000</v>
@@ -1814,19 +1814,19 @@
         <v>12800</v>
       </c>
       <c r="E43" s="3">
-        <v>17100</v>
+        <v>17200</v>
       </c>
       <c r="F43" s="3">
-        <v>40600</v>
+        <v>40900</v>
       </c>
       <c r="G43" s="3">
-        <v>54100</v>
+        <v>54500</v>
       </c>
       <c r="H43" s="3">
-        <v>41400</v>
+        <v>41800</v>
       </c>
       <c r="I43" s="3">
-        <v>11200</v>
+        <v>11300</v>
       </c>
       <c r="J43" s="3">
         <v>800</v>
@@ -1883,7 +1883,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="E45" s="3">
         <v>1000</v>
@@ -1895,10 +1895,10 @@
         <v>1900</v>
       </c>
       <c r="H45" s="3">
-        <v>10700</v>
+        <v>10800</v>
       </c>
       <c r="I45" s="3">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="J45" s="3">
         <v>600</v>
@@ -1919,22 +1919,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>118200</v>
+        <v>119100</v>
       </c>
       <c r="E46" s="3">
-        <v>129400</v>
+        <v>130400</v>
       </c>
       <c r="F46" s="3">
-        <v>247700</v>
+        <v>249600</v>
       </c>
       <c r="G46" s="3">
-        <v>298800</v>
+        <v>301100</v>
       </c>
       <c r="H46" s="3">
-        <v>231900</v>
+        <v>233700</v>
       </c>
       <c r="I46" s="3">
-        <v>155600</v>
+        <v>156800</v>
       </c>
       <c r="J46" s="3">
         <v>8400</v>
@@ -1955,22 +1955,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>85900</v>
+        <v>86500</v>
       </c>
       <c r="E47" s="3">
-        <v>88600</v>
+        <v>89200</v>
       </c>
       <c r="F47" s="3">
-        <v>27400</v>
+        <v>27600</v>
       </c>
       <c r="G47" s="3">
-        <v>36400</v>
+        <v>36700</v>
       </c>
       <c r="H47" s="3">
-        <v>24500</v>
+        <v>24700</v>
       </c>
       <c r="I47" s="3">
-        <v>21900</v>
+        <v>22100</v>
       </c>
       <c r="J47" s="3">
         <v>1900</v>
@@ -1991,19 +1991,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="E48" s="3">
-        <v>15200</v>
+        <v>15300</v>
       </c>
       <c r="F48" s="3">
         <v>5700</v>
       </c>
       <c r="G48" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="H48" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="I48" s="3">
         <v>2500</v>
@@ -2033,16 +2033,16 @@
         <v>6000</v>
       </c>
       <c r="F49" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="G49" s="3">
-        <v>52600</v>
+        <v>53000</v>
       </c>
       <c r="H49" s="3">
-        <v>56500</v>
+        <v>56900</v>
       </c>
       <c r="I49" s="3">
-        <v>49200</v>
+        <v>49600</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2141,16 +2141,16 @@
         <v>3500</v>
       </c>
       <c r="F52" s="3">
-        <v>20200</v>
+        <v>20300</v>
       </c>
       <c r="G52" s="3">
-        <v>16300</v>
+        <v>16400</v>
       </c>
       <c r="H52" s="3">
-        <v>14500</v>
+        <v>14600</v>
       </c>
       <c r="I52" s="3">
-        <v>16400</v>
+        <v>16500</v>
       </c>
       <c r="J52" s="3">
         <v>100</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>221000</v>
+        <v>222700</v>
       </c>
       <c r="E54" s="3">
-        <v>242600</v>
+        <v>244500</v>
       </c>
       <c r="F54" s="3">
-        <v>310100</v>
+        <v>312400</v>
       </c>
       <c r="G54" s="3">
-        <v>411100</v>
+        <v>414300</v>
       </c>
       <c r="H54" s="3">
-        <v>333200</v>
+        <v>335700</v>
       </c>
       <c r="I54" s="3">
-        <v>245700</v>
+        <v>247600</v>
       </c>
       <c r="J54" s="3">
-        <v>10500</v>
+        <v>10600</v>
       </c>
       <c r="K54" s="3">
         <v>5000</v>
@@ -2347,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>37800</v>
+        <v>38100</v>
       </c>
       <c r="E59" s="3">
-        <v>49700</v>
+        <v>50000</v>
       </c>
       <c r="F59" s="3">
-        <v>92200</v>
+        <v>92900</v>
       </c>
       <c r="G59" s="3">
-        <v>109300</v>
+        <v>110100</v>
       </c>
       <c r="H59" s="3">
-        <v>75600</v>
+        <v>76200</v>
       </c>
       <c r="I59" s="3">
-        <v>59300</v>
+        <v>59700</v>
       </c>
       <c r="J59" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="K59" s="3">
         <v>1200</v>
@@ -2383,25 +2383,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>37800</v>
+        <v>38100</v>
       </c>
       <c r="E60" s="3">
-        <v>49700</v>
+        <v>50000</v>
       </c>
       <c r="F60" s="3">
-        <v>92200</v>
+        <v>92900</v>
       </c>
       <c r="G60" s="3">
-        <v>109300</v>
+        <v>110100</v>
       </c>
       <c r="H60" s="3">
-        <v>75600</v>
+        <v>76200</v>
       </c>
       <c r="I60" s="3">
-        <v>59100</v>
+        <v>59600</v>
       </c>
       <c r="J60" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="K60" s="3">
         <v>1200</v>
@@ -2461,16 +2461,16 @@
         <v>5300</v>
       </c>
       <c r="F62" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="G62" s="3">
-        <v>11600</v>
+        <v>11700</v>
       </c>
       <c r="H62" s="3">
-        <v>15200</v>
+        <v>15300</v>
       </c>
       <c r="I62" s="3">
-        <v>13700</v>
+        <v>13800</v>
       </c>
       <c r="J62" s="3">
         <v>200</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>42700</v>
+        <v>43100</v>
       </c>
       <c r="E66" s="3">
-        <v>56700</v>
+        <v>57100</v>
       </c>
       <c r="F66" s="3">
-        <v>100400</v>
+        <v>101200</v>
       </c>
       <c r="G66" s="3">
-        <v>126300</v>
+        <v>127300</v>
       </c>
       <c r="H66" s="3">
-        <v>98200</v>
+        <v>99000</v>
       </c>
       <c r="I66" s="3">
-        <v>75500</v>
+        <v>76100</v>
       </c>
       <c r="J66" s="3">
         <v>3400</v>
@@ -2801,16 +2801,16 @@
         <v>-2800</v>
       </c>
       <c r="F72" s="3">
-        <v>23000</v>
+        <v>23200</v>
       </c>
       <c r="G72" s="3">
-        <v>103500</v>
+        <v>104300</v>
       </c>
       <c r="H72" s="3">
-        <v>56800</v>
+        <v>57300</v>
       </c>
       <c r="I72" s="3">
-        <v>24300</v>
+        <v>24500</v>
       </c>
       <c r="J72" s="3">
         <v>0</v>
@@ -2939,22 +2939,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>178200</v>
+        <v>179600</v>
       </c>
       <c r="E76" s="3">
-        <v>185900</v>
+        <v>187300</v>
       </c>
       <c r="F76" s="3">
-        <v>209600</v>
+        <v>211200</v>
       </c>
       <c r="G76" s="3">
-        <v>284800</v>
+        <v>287000</v>
       </c>
       <c r="H76" s="3">
-        <v>234900</v>
+        <v>236700</v>
       </c>
       <c r="I76" s="3">
-        <v>170200</v>
+        <v>171500</v>
       </c>
       <c r="J76" s="3">
         <v>1200</v>
@@ -3055,19 +3055,19 @@
         <v>-4900</v>
       </c>
       <c r="E81" s="3">
-        <v>-25800</v>
+        <v>-26000</v>
       </c>
       <c r="F81" s="3">
-        <v>-60700</v>
+        <v>-61200</v>
       </c>
       <c r="G81" s="3">
-        <v>64100</v>
+        <v>64600</v>
       </c>
       <c r="H81" s="3">
-        <v>32500</v>
+        <v>32700</v>
       </c>
       <c r="I81" s="3">
-        <v>24000</v>
+        <v>24200</v>
       </c>
       <c r="J81" s="3">
         <v>1100</v>
@@ -3116,10 +3116,10 @@
         <v>5100</v>
       </c>
       <c r="H83" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="I83" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
@@ -3323,22 +3323,22 @@
         <v>100</v>
       </c>
       <c r="E89" s="3">
-        <v>-33400</v>
+        <v>-33600</v>
       </c>
       <c r="F89" s="3">
-        <v>-10600</v>
+        <v>-10700</v>
       </c>
       <c r="G89" s="3">
-        <v>96700</v>
+        <v>97400</v>
       </c>
       <c r="H89" s="3">
-        <v>29500</v>
+        <v>29700</v>
       </c>
       <c r="I89" s="3">
-        <v>57800</v>
+        <v>58200</v>
       </c>
       <c r="J89" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="K89" s="3">
         <v>2600</v>
@@ -3381,10 +3381,10 @@
         <v>-1500</v>
       </c>
       <c r="G91" s="3">
-        <v>-6100</v>
+        <v>-6200</v>
       </c>
       <c r="H91" s="3">
-        <v>-8200</v>
+        <v>-8300</v>
       </c>
       <c r="I91" s="3">
         <v>-1900</v>
@@ -3483,22 +3483,22 @@
         <v>-5100</v>
       </c>
       <c r="E94" s="3">
-        <v>-57200</v>
+        <v>-57700</v>
       </c>
       <c r="F94" s="3">
         <v>-6400</v>
       </c>
       <c r="G94" s="3">
-        <v>-11600</v>
+        <v>-11700</v>
       </c>
       <c r="H94" s="3">
         <v>300</v>
       </c>
       <c r="I94" s="3">
-        <v>-11800</v>
+        <v>-11900</v>
       </c>
       <c r="J94" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="K94" s="3">
         <v>-2300</v>
@@ -3538,10 +3538,10 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-19800</v>
+        <v>-19900</v>
       </c>
       <c r="G96" s="3">
-        <v>-17400</v>
+        <v>-17500</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3682,16 +3682,16 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>-19000</v>
+        <v>-19200</v>
       </c>
       <c r="G100" s="3">
-        <v>-19000</v>
+        <v>-19100</v>
       </c>
       <c r="H100" s="3">
-        <v>17900</v>
+        <v>18000</v>
       </c>
       <c r="I100" s="3">
-        <v>46000</v>
+        <v>46400</v>
       </c>
       <c r="J100" s="3">
         <v>1200</v>
@@ -3748,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-8600</v>
+        <v>-8700</v>
       </c>
       <c r="E102" s="3">
-        <v>-92400</v>
+        <v>-93100</v>
       </c>
       <c r="F102" s="3">
-        <v>-35300</v>
+        <v>-35500</v>
       </c>
       <c r="G102" s="3">
-        <v>63300</v>
+        <v>63800</v>
       </c>
       <c r="H102" s="3">
-        <v>51300</v>
+        <v>51700</v>
       </c>
       <c r="I102" s="3">
-        <v>94300</v>
+        <v>95000</v>
       </c>
       <c r="J102" s="3">
         <v>4100</v>

--- a/AAII_Financials/Yearly/JP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JP_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>JP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,178 @@
     <col min="1" max="1" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>61500</v>
+        <v>53100</v>
       </c>
       <c r="E8" s="3">
-        <v>124800</v>
+        <v>57400</v>
       </c>
       <c r="F8" s="3">
-        <v>209200</v>
+        <v>116500</v>
       </c>
       <c r="G8" s="3">
-        <v>270200</v>
+        <v>195400</v>
       </c>
       <c r="H8" s="3">
-        <v>178500</v>
+        <v>252400</v>
       </c>
       <c r="I8" s="3">
-        <v>95000</v>
+        <v>166700</v>
       </c>
       <c r="J8" s="3">
+        <v>88800</v>
+      </c>
+      <c r="K8" s="3">
         <v>6100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1200</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>32700</v>
+        <v>23200</v>
       </c>
       <c r="E9" s="3">
-        <v>76800</v>
+        <v>30500</v>
       </c>
       <c r="F9" s="3">
-        <v>108700</v>
+        <v>71700</v>
       </c>
       <c r="G9" s="3">
-        <v>117400</v>
+        <v>101500</v>
       </c>
       <c r="H9" s="3">
-        <v>75800</v>
+        <v>109600</v>
       </c>
       <c r="I9" s="3">
-        <v>38400</v>
+        <v>70800</v>
       </c>
       <c r="J9" s="3">
+        <v>35900</v>
+      </c>
+      <c r="K9" s="3">
         <v>1700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>100</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>28800</v>
+        <v>29900</v>
       </c>
       <c r="E10" s="3">
-        <v>48000</v>
+        <v>26900</v>
       </c>
       <c r="F10" s="3">
-        <v>100500</v>
+        <v>44800</v>
       </c>
       <c r="G10" s="3">
-        <v>152800</v>
+        <v>93900</v>
       </c>
       <c r="H10" s="3">
-        <v>102700</v>
+        <v>142700</v>
       </c>
       <c r="I10" s="3">
-        <v>56600</v>
+        <v>95900</v>
       </c>
       <c r="J10" s="3">
+        <v>52900</v>
+      </c>
+      <c r="K10" s="3">
         <v>4500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1100</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,8 +851,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,9 +887,12 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,26 +926,29 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>41600</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>42200</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>39400</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -940,15 +959,18 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -982,9 +1004,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,80 +1021,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>66900</v>
+        <v>94900</v>
       </c>
       <c r="E17" s="3">
-        <v>146300</v>
+        <v>62500</v>
       </c>
       <c r="F17" s="3">
-        <v>234300</v>
+        <v>136700</v>
       </c>
       <c r="G17" s="3">
-        <v>187600</v>
+        <v>218900</v>
       </c>
       <c r="H17" s="3">
-        <v>132000</v>
+        <v>175200</v>
       </c>
       <c r="I17" s="3">
-        <v>62900</v>
+        <v>123300</v>
       </c>
       <c r="J17" s="3">
+        <v>58700</v>
+      </c>
+      <c r="K17" s="3">
         <v>3300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-5400</v>
+        <v>-41800</v>
       </c>
       <c r="E18" s="3">
-        <v>-21600</v>
+        <v>-5100</v>
       </c>
       <c r="F18" s="3">
-        <v>-25100</v>
+        <v>-20100</v>
       </c>
       <c r="G18" s="3">
-        <v>82600</v>
+        <v>-23500</v>
       </c>
       <c r="H18" s="3">
-        <v>46500</v>
+        <v>77200</v>
       </c>
       <c r="I18" s="3">
-        <v>32200</v>
+        <v>43400</v>
       </c>
       <c r="J18" s="3">
+        <v>30000</v>
+      </c>
+      <c r="K18" s="3">
         <v>2800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>800</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,80 +1116,87 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="E20" s="3">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>1300</v>
+        <v>3300</v>
       </c>
       <c r="G20" s="3">
-        <v>3100</v>
+        <v>1200</v>
       </c>
       <c r="H20" s="3">
-        <v>2600</v>
+        <v>2900</v>
       </c>
       <c r="I20" s="3">
-        <v>4100</v>
+        <v>2400</v>
       </c>
       <c r="J20" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-2800</v>
+        <v>-40800</v>
       </c>
       <c r="E21" s="3">
-        <v>-13900</v>
+        <v>-2600</v>
       </c>
       <c r="F21" s="3">
-        <v>-18100</v>
+        <v>-13000</v>
       </c>
       <c r="G21" s="3">
-        <v>90800</v>
+        <v>-16900</v>
       </c>
       <c r="H21" s="3">
-        <v>53800</v>
+        <v>84900</v>
       </c>
       <c r="I21" s="3">
-        <v>38400</v>
+        <v>50300</v>
       </c>
       <c r="J21" s="3">
+        <v>35900</v>
+      </c>
+      <c r="K21" s="3">
         <v>3200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>800</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1173,8 +1212,8 @@
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1188,84 +1227,93 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-5400</v>
+        <v>-42500</v>
       </c>
       <c r="E23" s="3">
-        <v>-18100</v>
+        <v>-5000</v>
       </c>
       <c r="F23" s="3">
-        <v>-23900</v>
+        <v>-16900</v>
       </c>
       <c r="G23" s="3">
-        <v>85700</v>
+        <v>-22300</v>
       </c>
       <c r="H23" s="3">
-        <v>49100</v>
+        <v>80000</v>
       </c>
       <c r="I23" s="3">
-        <v>36300</v>
+        <v>45800</v>
       </c>
       <c r="J23" s="3">
+        <v>33900</v>
+      </c>
+      <c r="K23" s="3">
         <v>3200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>800</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>8400</v>
-      </c>
       <c r="F24" s="3">
-        <v>20500</v>
+        <v>7800</v>
       </c>
       <c r="G24" s="3">
-        <v>19400</v>
+        <v>19100</v>
       </c>
       <c r="H24" s="3">
-        <v>13000</v>
+        <v>18100</v>
       </c>
       <c r="I24" s="3">
-        <v>10600</v>
+        <v>12200</v>
       </c>
       <c r="J24" s="3">
+        <v>9900</v>
+      </c>
+      <c r="K24" s="3">
         <v>900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,81 +1347,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-5500</v>
+        <v>-42800</v>
       </c>
       <c r="E26" s="3">
-        <v>-26400</v>
+        <v>-5200</v>
       </c>
       <c r="F26" s="3">
-        <v>-44400</v>
+        <v>-24700</v>
       </c>
       <c r="G26" s="3">
-        <v>66200</v>
+        <v>-41500</v>
       </c>
       <c r="H26" s="3">
-        <v>36000</v>
+        <v>61900</v>
       </c>
       <c r="I26" s="3">
-        <v>25700</v>
+        <v>33700</v>
       </c>
       <c r="J26" s="3">
+        <v>24000</v>
+      </c>
+      <c r="K26" s="3">
         <v>2300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>600</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4900</v>
+        <v>-39500</v>
       </c>
       <c r="E27" s="3">
-        <v>-26000</v>
+        <v>-4600</v>
       </c>
       <c r="F27" s="3">
-        <v>-61200</v>
+        <v>-24300</v>
       </c>
       <c r="G27" s="3">
-        <v>64600</v>
+        <v>-57100</v>
       </c>
       <c r="H27" s="3">
-        <v>32700</v>
+        <v>60300</v>
       </c>
       <c r="I27" s="3">
-        <v>24200</v>
+        <v>30600</v>
       </c>
       <c r="J27" s="3">
+        <v>22600</v>
+      </c>
+      <c r="K27" s="3">
         <v>1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>600</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,81 +1581,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E32" s="3">
-        <v>-3500</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>-1300</v>
+        <v>-3300</v>
       </c>
       <c r="G32" s="3">
-        <v>-3100</v>
+        <v>-1200</v>
       </c>
       <c r="H32" s="3">
-        <v>-2600</v>
+        <v>-2900</v>
       </c>
       <c r="I32" s="3">
-        <v>-4100</v>
+        <v>-2400</v>
       </c>
       <c r="J32" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-4900</v>
+        <v>-39500</v>
       </c>
       <c r="E33" s="3">
-        <v>-26000</v>
+        <v>-4600</v>
       </c>
       <c r="F33" s="3">
-        <v>-61200</v>
+        <v>-24300</v>
       </c>
       <c r="G33" s="3">
-        <v>64600</v>
+        <v>-57100</v>
       </c>
       <c r="H33" s="3">
-        <v>32700</v>
+        <v>60300</v>
       </c>
       <c r="I33" s="3">
-        <v>24200</v>
+        <v>30600</v>
       </c>
       <c r="J33" s="3">
+        <v>22600</v>
+      </c>
+      <c r="K33" s="3">
         <v>1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>600</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,86 +1698,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-4900</v>
+        <v>-39500</v>
       </c>
       <c r="E35" s="3">
-        <v>-26000</v>
+        <v>-4600</v>
       </c>
       <c r="F35" s="3">
-        <v>-61200</v>
+        <v>-24300</v>
       </c>
       <c r="G35" s="3">
-        <v>64600</v>
+        <v>-57100</v>
       </c>
       <c r="H35" s="3">
-        <v>32700</v>
+        <v>60300</v>
       </c>
       <c r="I35" s="3">
-        <v>24200</v>
+        <v>30600</v>
       </c>
       <c r="J35" s="3">
+        <v>22600</v>
+      </c>
+      <c r="K35" s="3">
         <v>1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>600</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,116 +1818,126 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>99500</v>
+        <v>88700</v>
       </c>
       <c r="E41" s="3">
-        <v>112200</v>
+        <v>92900</v>
       </c>
       <c r="F41" s="3">
-        <v>204900</v>
+        <v>104800</v>
       </c>
       <c r="G41" s="3">
-        <v>241000</v>
+        <v>191400</v>
       </c>
       <c r="H41" s="3">
-        <v>177200</v>
+        <v>225100</v>
       </c>
       <c r="I41" s="3">
-        <v>125500</v>
+        <v>165500</v>
       </c>
       <c r="J41" s="3">
+        <v>117200</v>
+      </c>
+      <c r="K41" s="3">
         <v>5000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I42" s="3">
         <v>3700</v>
       </c>
-      <c r="H42" s="3">
-        <v>4000</v>
-      </c>
-      <c r="I42" s="3">
-        <v>11700</v>
-      </c>
       <c r="J42" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K42" s="3">
         <v>2000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>300</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12800</v>
+        <v>8900</v>
       </c>
       <c r="E43" s="3">
-        <v>17200</v>
+        <v>12000</v>
       </c>
       <c r="F43" s="3">
-        <v>40900</v>
+        <v>16100</v>
       </c>
       <c r="G43" s="3">
-        <v>54500</v>
+        <v>38200</v>
       </c>
       <c r="H43" s="3">
-        <v>41800</v>
+        <v>50900</v>
       </c>
       <c r="I43" s="3">
-        <v>11300</v>
+        <v>39000</v>
       </c>
       <c r="J43" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K43" s="3">
         <v>800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1100</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1876,176 +1971,191 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6800</v>
+        <v>3500</v>
       </c>
       <c r="E45" s="3">
-        <v>1000</v>
+        <v>6300</v>
       </c>
       <c r="F45" s="3">
-        <v>3000</v>
+        <v>900</v>
       </c>
       <c r="G45" s="3">
-        <v>1900</v>
+        <v>2800</v>
       </c>
       <c r="H45" s="3">
-        <v>10800</v>
+        <v>1800</v>
       </c>
       <c r="I45" s="3">
-        <v>8300</v>
+        <v>10100</v>
       </c>
       <c r="J45" s="3">
+        <v>7800</v>
+      </c>
+      <c r="K45" s="3">
         <v>600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>119100</v>
+        <v>101100</v>
       </c>
       <c r="E46" s="3">
-        <v>130400</v>
+        <v>111200</v>
       </c>
       <c r="F46" s="3">
-        <v>249600</v>
+        <v>121800</v>
       </c>
       <c r="G46" s="3">
-        <v>301100</v>
+        <v>233100</v>
       </c>
       <c r="H46" s="3">
-        <v>233700</v>
+        <v>281200</v>
       </c>
       <c r="I46" s="3">
-        <v>156800</v>
+        <v>218300</v>
       </c>
       <c r="J46" s="3">
+        <v>146500</v>
+      </c>
+      <c r="K46" s="3">
         <v>8400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1700</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>86500</v>
+        <v>81600</v>
       </c>
       <c r="E47" s="3">
-        <v>89200</v>
+        <v>80800</v>
       </c>
       <c r="F47" s="3">
-        <v>27600</v>
+        <v>83300</v>
       </c>
       <c r="G47" s="3">
-        <v>36700</v>
+        <v>25800</v>
       </c>
       <c r="H47" s="3">
-        <v>24700</v>
+        <v>34200</v>
       </c>
       <c r="I47" s="3">
-        <v>22100</v>
+        <v>23000</v>
       </c>
       <c r="J47" s="3">
+        <v>20600</v>
+      </c>
+      <c r="K47" s="3">
         <v>1900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>500</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8900</v>
+        <v>6300</v>
       </c>
       <c r="E48" s="3">
-        <v>15300</v>
+        <v>8300</v>
       </c>
       <c r="F48" s="3">
-        <v>5700</v>
+        <v>14300</v>
       </c>
       <c r="G48" s="3">
-        <v>7100</v>
+        <v>5300</v>
       </c>
       <c r="H48" s="3">
-        <v>5900</v>
+        <v>6600</v>
       </c>
       <c r="I48" s="3">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="J48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K48" s="3">
         <v>200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>100</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5400</v>
+        <v>4500</v>
       </c>
       <c r="E49" s="3">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="F49" s="3">
-        <v>9200</v>
+        <v>5600</v>
       </c>
       <c r="G49" s="3">
-        <v>53000</v>
+        <v>8600</v>
       </c>
       <c r="H49" s="3">
-        <v>56900</v>
+        <v>49500</v>
       </c>
       <c r="I49" s="3">
-        <v>49600</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+        <v>53200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>46300</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2056,9 +2166,12 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,45 +2244,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="E52" s="3">
-        <v>3500</v>
+        <v>2600</v>
       </c>
       <c r="F52" s="3">
-        <v>20300</v>
+        <v>3300</v>
       </c>
       <c r="G52" s="3">
-        <v>16400</v>
+        <v>19000</v>
       </c>
       <c r="H52" s="3">
-        <v>14600</v>
+        <v>15400</v>
       </c>
       <c r="I52" s="3">
-        <v>16500</v>
+        <v>13600</v>
       </c>
       <c r="J52" s="3">
+        <v>15500</v>
+      </c>
+      <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,45 +2322,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>222700</v>
+        <v>195900</v>
       </c>
       <c r="E54" s="3">
-        <v>244500</v>
+        <v>208000</v>
       </c>
       <c r="F54" s="3">
-        <v>312400</v>
+        <v>228400</v>
       </c>
       <c r="G54" s="3">
-        <v>414300</v>
+        <v>291800</v>
       </c>
       <c r="H54" s="3">
-        <v>335700</v>
+        <v>387000</v>
       </c>
       <c r="I54" s="3">
-        <v>247600</v>
+        <v>313600</v>
       </c>
       <c r="J54" s="3">
+        <v>231300</v>
+      </c>
+      <c r="K54" s="3">
         <v>10600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2200</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,8 +2398,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2298,15 +2428,18 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
+      <c r="L57" s="3">
+        <v>0</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2340,81 +2473,90 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>38100</v>
+        <v>70400</v>
       </c>
       <c r="E59" s="3">
-        <v>50000</v>
+        <v>35600</v>
       </c>
       <c r="F59" s="3">
-        <v>92900</v>
+        <v>46700</v>
       </c>
       <c r="G59" s="3">
-        <v>110100</v>
+        <v>86800</v>
       </c>
       <c r="H59" s="3">
-        <v>76200</v>
+        <v>102900</v>
       </c>
       <c r="I59" s="3">
-        <v>59700</v>
+        <v>71200</v>
       </c>
       <c r="J59" s="3">
+        <v>55800</v>
+      </c>
+      <c r="K59" s="3">
         <v>3100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>38100</v>
+        <v>70400</v>
       </c>
       <c r="E60" s="3">
-        <v>50000</v>
+        <v>35600</v>
       </c>
       <c r="F60" s="3">
-        <v>92900</v>
+        <v>46700</v>
       </c>
       <c r="G60" s="3">
-        <v>110100</v>
+        <v>86800</v>
       </c>
       <c r="H60" s="3">
-        <v>76200</v>
+        <v>102900</v>
       </c>
       <c r="I60" s="3">
-        <v>59600</v>
+        <v>71200</v>
       </c>
       <c r="J60" s="3">
+        <v>55600</v>
+      </c>
+      <c r="K60" s="3">
         <v>3100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>300</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2448,45 +2590,51 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4000</v>
+        <v>1700</v>
       </c>
       <c r="E62" s="3">
-        <v>5300</v>
+        <v>3700</v>
       </c>
       <c r="F62" s="3">
-        <v>3900</v>
+        <v>5000</v>
       </c>
       <c r="G62" s="3">
-        <v>11700</v>
+        <v>3600</v>
       </c>
       <c r="H62" s="3">
-        <v>15300</v>
+        <v>10900</v>
       </c>
       <c r="I62" s="3">
-        <v>13800</v>
+        <v>14300</v>
       </c>
       <c r="J62" s="3">
-        <v>200</v>
+        <v>12900</v>
       </c>
       <c r="K62" s="3">
         <v>200</v>
       </c>
       <c r="L62" s="3">
+        <v>200</v>
+      </c>
+      <c r="M62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,45 +2746,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>43100</v>
+        <v>69000</v>
       </c>
       <c r="E66" s="3">
-        <v>57100</v>
+        <v>40200</v>
       </c>
       <c r="F66" s="3">
-        <v>101200</v>
+        <v>53400</v>
       </c>
       <c r="G66" s="3">
-        <v>127300</v>
+        <v>94500</v>
       </c>
       <c r="H66" s="3">
-        <v>99000</v>
+        <v>118900</v>
       </c>
       <c r="I66" s="3">
-        <v>76100</v>
+        <v>92500</v>
       </c>
       <c r="J66" s="3">
+        <v>71100</v>
+      </c>
+      <c r="K66" s="3">
         <v>3400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>400</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2741,20 +2908,23 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>6000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>200</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,45 +2958,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-7700</v>
+        <v>-46700</v>
       </c>
       <c r="E72" s="3">
-        <v>-2800</v>
+        <v>-7200</v>
       </c>
       <c r="F72" s="3">
-        <v>23200</v>
+        <v>-2600</v>
       </c>
       <c r="G72" s="3">
-        <v>104300</v>
+        <v>21700</v>
       </c>
       <c r="H72" s="3">
-        <v>57300</v>
+        <v>97400</v>
       </c>
       <c r="I72" s="3">
-        <v>24500</v>
+        <v>53500</v>
       </c>
       <c r="J72" s="3">
-        <v>0</v>
+        <v>22900</v>
       </c>
       <c r="K72" s="3">
+        <v>0</v>
+      </c>
+      <c r="L72" s="3">
         <v>2200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>800</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,45 +3114,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>179600</v>
+        <v>126900</v>
       </c>
       <c r="E76" s="3">
-        <v>187300</v>
+        <v>167800</v>
       </c>
       <c r="F76" s="3">
-        <v>211200</v>
+        <v>175000</v>
       </c>
       <c r="G76" s="3">
-        <v>287000</v>
+        <v>197300</v>
       </c>
       <c r="H76" s="3">
-        <v>236700</v>
+        <v>268100</v>
       </c>
       <c r="I76" s="3">
-        <v>171500</v>
+        <v>221100</v>
       </c>
       <c r="J76" s="3">
+        <v>160200</v>
+      </c>
+      <c r="K76" s="3">
         <v>1200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1700</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,86 +3192,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-4900</v>
+        <v>-39500</v>
       </c>
       <c r="E81" s="3">
-        <v>-26000</v>
+        <v>-4600</v>
       </c>
       <c r="F81" s="3">
-        <v>-61200</v>
+        <v>-24300</v>
       </c>
       <c r="G81" s="3">
-        <v>64600</v>
+        <v>-57100</v>
       </c>
       <c r="H81" s="3">
-        <v>32700</v>
+        <v>60300</v>
       </c>
       <c r="I81" s="3">
-        <v>24200</v>
+        <v>30600</v>
       </c>
       <c r="J81" s="3">
+        <v>22600</v>
+      </c>
+      <c r="K81" s="3">
         <v>1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>600</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,44 +3295,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2600</v>
+        <v>1600</v>
       </c>
       <c r="E83" s="3">
-        <v>4100</v>
+        <v>2400</v>
       </c>
       <c r="F83" s="3">
-        <v>5700</v>
+        <v>3800</v>
       </c>
       <c r="G83" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="H83" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="I83" s="3">
-        <v>2100</v>
+        <v>4400</v>
       </c>
       <c r="J83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,45 +3526,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E89" s="3">
         <v>100</v>
       </c>
-      <c r="E89" s="3">
-        <v>-33600</v>
-      </c>
       <c r="F89" s="3">
-        <v>-10700</v>
+        <v>-31400</v>
       </c>
       <c r="G89" s="3">
-        <v>97400</v>
+        <v>-10000</v>
       </c>
       <c r="H89" s="3">
-        <v>29700</v>
+        <v>91000</v>
       </c>
       <c r="I89" s="3">
-        <v>58200</v>
+        <v>27700</v>
       </c>
       <c r="J89" s="3">
+        <v>54400</v>
+      </c>
+      <c r="K89" s="3">
         <v>3900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>200</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,44 +3585,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
-        <v>-2100</v>
-      </c>
       <c r="F91" s="3">
-        <v>-1500</v>
+        <v>-1900</v>
       </c>
       <c r="G91" s="3">
-        <v>-6200</v>
+        <v>-1400</v>
       </c>
       <c r="H91" s="3">
-        <v>-8300</v>
+        <v>-5800</v>
       </c>
       <c r="I91" s="3">
-        <v>-1900</v>
+        <v>-7800</v>
       </c>
       <c r="J91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,45 +3699,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5100</v>
+        <v>-1500</v>
       </c>
       <c r="E94" s="3">
-        <v>-57700</v>
+        <v>-4800</v>
       </c>
       <c r="F94" s="3">
-        <v>-6400</v>
+        <v>-53900</v>
       </c>
       <c r="G94" s="3">
-        <v>-11700</v>
+        <v>-6000</v>
       </c>
       <c r="H94" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="I94" s="3">
         <v>300</v>
       </c>
-      <c r="I94" s="3">
-        <v>-11900</v>
-      </c>
       <c r="J94" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-800</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,8 +3758,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3538,13 +3771,13 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-19900</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-17500</v>
+        <v>-18600</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-16400</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3561,9 +3794,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,68 +3911,74 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1100</v>
+        <v>-700</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="F100" s="3">
-        <v>-19200</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>-19100</v>
+        <v>-17900</v>
       </c>
       <c r="H100" s="3">
-        <v>18000</v>
+        <v>-17900</v>
       </c>
       <c r="I100" s="3">
-        <v>46400</v>
+        <v>16900</v>
       </c>
       <c r="J100" s="3">
+        <v>43300</v>
+      </c>
+      <c r="K100" s="3">
         <v>1200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>700</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2500</v>
+        <v>-700</v>
       </c>
       <c r="E101" s="3">
-        <v>-1800</v>
+        <v>-2400</v>
       </c>
       <c r="F101" s="3">
-        <v>800</v>
+        <v>-1700</v>
       </c>
       <c r="G101" s="3">
-        <v>-2800</v>
+        <v>700</v>
       </c>
       <c r="H101" s="3">
-        <v>3600</v>
+        <v>-2600</v>
       </c>
       <c r="I101" s="3">
-        <v>2300</v>
+        <v>3400</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -3738,46 +3986,52 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-8700</v>
+        <v>-6700</v>
       </c>
       <c r="E102" s="3">
-        <v>-93100</v>
+        <v>-8100</v>
       </c>
       <c r="F102" s="3">
-        <v>-35500</v>
+        <v>-87000</v>
       </c>
       <c r="G102" s="3">
-        <v>63800</v>
+        <v>-33200</v>
       </c>
       <c r="H102" s="3">
-        <v>51700</v>
+        <v>59600</v>
       </c>
       <c r="I102" s="3">
-        <v>95000</v>
+        <v>48300</v>
       </c>
       <c r="J102" s="3">
+        <v>88800</v>
+      </c>
+      <c r="K102" s="3">
         <v>4100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
